--- a/server/News18_Punjab.xlsx
+++ b/server/News18_Punjab.xlsx
@@ -28,187 +28,187 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Parliament Session: 'India has made a place as a world friend, some people still doubt the country' - PM Modi said in Lok Sabha</t>
-  </si>
-  <si>
-    <t>New Delhi- Addressing the Parliament Special Session, Prime Minister Narendra Modi said in the Lok Sabha that today is an opportunity to move forward by remembering the inspiring moments. We are all saying goodbye to this historic house. We may move to a new building but the old building will always inspire future generations. Through this House, I once again congratulate the scientists and their colleagues of the country. PM Modi said that I thank you for the success of G-20. This is the success of India, not the success of any person or any party. Prime Minister Narendra Modi said that various governments of the country have worked to increase the pride and dignity of the country. I cannot forget the emotional moment when the African Union got membership of the G-20. PM Modi also said that many people have a tendency to be skeptical about India. It is a matter of pride for all of us that today India has succeeded in making its place as a world friend. The whole world is looking for its friend in India. PM Modi said that saying goodbye to this House is a very emotional moment. If the family leaves the old house and moves to the new house, many memories shake it for a few moments. As we are leaving this house, our mind and brain are also filled with those feelings and filled with many memories. Celebrations, excitement, bitter-sweet moments, quarrels are connected with these memories. Modi government approved 1650 crore rupees under Ujwala Yojana, India is a 'nation' that considers the world as a family, PM Modi said on Moneycontrol, 'One country, one election'. The committee formed on, EX President Kovind as the head of the committee Lok Sabha elections may be held in December, BJP has booked all the helicopters: Mamata Prime Minister Narendra Modi said that before independence this house used to be the seat of the Imperial Legislative Council. After independence it was recognized as Parliament House. It is true that the decision to build this building was of foreign rulers. But we can never forget it and can proudly say that in the construction of this building, the sweat of my countrymen, the labor of my countrymen and the money also belonged to the people of my country. Prime Minister Narendra Modi said that when there was a terrorist attack on Parliament House, it was not a terrorist attack on a building, but in a way it was an attack on the mother of democracy, our living soul. The country can never forget that incident. I also salute those people who fought the terrorists</t>
+    <t>Asian Games 2023: India won gold by defeating Japan in the hockey final</t>
+  </si>
+  <si>
+    <t>New Delhi- The Indian men's hockey team has won the gold medal in the Asian Games. India defeated Japan in the final. Along with this, the Indian team has also qualified for the Paris Olympics. India has won a record 16th medal in men's hockey. Out of these 16 medals, 4 are gold medals. South Korea defeated hosts China to win the bronze medal. Pakistan, once a great hockey team, did not get a medal. In the 19th Asian Games held in China, India performed brilliantly from the first match. How much Team India dominated the tournament can be estimated from the score card. Sarbjot-Divya won the silver medal for India in shooting. Know the truth of the viral video? Ludhiana District Magistrate issued various ban orders. The conversation between PM Modi and Xi Jinping met each other in this style. India defeated Uzbekistan by a huge margin of 16-0 in the first match of the Asian Games. . After this, Singapore was defeated by 16-1 and Bangladesh by 12-0. India defeated Japan 4-2 and Pakistan 10-10-2 in the group round itself. Then they beat Japan 5-1 in the final. This is the fourth gold medal for the Indian men's hockey team in the Asian Games. India had earlier achieved golden success in the 2014 Asian Games.</t>
   </si>
   <si>
     <t>news</t>
   </si>
   <si>
-    <t>https://punjab.news18.com/news/national/parliament-session-india-has-made-a-place-as-a-world-friend-some-people-still-doubt-the-country-pm-modi-said-in-lok-sabha-ak-462220.html</t>
-  </si>
-  <si>
-    <t>JE of PSPCL caught taking bribe of Rs 5,000 by Vigilance Bureau</t>
-  </si>
-  <si>
-    <t>Chandigarh: Punjab Vigilance Bureau on Friday arrested a Junior Engineer (JE) posted at the office of Punjab State Power Corporation Limited (PSPCL) at Sherpur, District Sangrur during the ongoing campaign against corruption in the state. Amarjit Singh has been caught red-handed while demanding a bribe of Rs. 5,000. Amarjit Singh has been arrested on the complaint of Ranjit Singh resident of Kheri, sub division Dhuri. He said that the complainant has approached the Vigilance Bureau and alleged that the employee is demanding a bribe of Rs 5,000 to replace the old transformer in his agricultural farm. Director Dharminder Singh Sandhu was arrested, the eight-year-old girl became SHO, see if the brother-in-law who killed the first judge was arrested, the spokesperson of the Grave Vigilance Bureau from Ambala station said that after the preliminary investigation of this complaint, the vigilance team of Patiala range laid a trap. P.S.P.C.L. The employee was caught on the spot taking a bribe of Rs 5,000 from the complainant in the presence of two government witnesses. In this regard, a case under the Prevention of Corruption Act has been registered against the accused employee at Vigilance Bureau Police Station Patiala Range. Further investigation of this matter is ongoing.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/punjab/je-of-pspcl-caught-taking-bribe-of-rs-5000-by-vigilance-bureau-skm-459640.html</t>
-  </si>
-  <si>
-    <t>Punjab government has released Rs 2.69 crore subsidy of soft seeds to more than 15 thousand farmers.</t>
-  </si>
-  <si>
-    <t>Chandigarh: According to the promise made by the Punjab government led by Chief Minister Bhagwant Singh Mann to give 33 percent subsidy on soft seeds, the Agriculture and Farmers Welfare Department has deposited a subsidy of Rs. 2.69 crore in the bank accounts of 15,541 farmers. In this regard Giving information, Minister of Agriculture and Farmers Welfare of Punjab. Gurmeet Singh Khudian said that a total of Rs 17.02 crore has been transferred to 87,173 farmers through the Direct Benefit Transfer (DBT) system so far as soft seed subsidy. This subsidy is being given on soft seeds certified by the Punjab Agricultural University (PAU). DEO Kejriwal's one-day visit to Faridkot, a record of three and a half years, turned out to be a flop show: on export of Bajwa Basmati. Sanctions imposed should be withdrawn immediately: CM Mann Amritsar News. During the rally of CM Arvind Kejriwal and CM Mann, these routes will be diverted. The Minister of Agriculture said that in the coming days, the subsidy will be released to the remaining eligible beneficiary farmers. Regarding making agriculture beneficial for the farmers, Chief Minister S. Reiterating the commitment of Bhagwant Singh Maan, the Agriculture Minister said that high yielding soft seeds were made available to encourage the farmers to cultivate alternative crops except the water intensive paddy crop. Adequate steps are also being taken to protect the narme crop from the attack of whitefly and pink bollworm. He said that apart from this, quality control is being ensured to provide quality agricultural products to the farmers. For this purpose, the shops with pesticides and seeds are being checked from time to time by the teams of the Agriculture Department.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/punjab/punjab-government-has-released-rs-2-69-crore-subsidy-of-soft-seeds-to-more-than-15-thousand-farmers-ak-459621.html</t>
-  </si>
-  <si>
-    <t>Airbus and Indian Railways sign MOU, Gati Shakti University expected to create 15,000 jobs</t>
-  </si>
-  <si>
-    <t>According to the Ministry of Railways, Airbus' Indian operation alone is set to induct around 15,000 students through this unprecedented initiative. The signing ceremony took place at Rail Bhawan, where the partnership was officially sealed by Remy Maillard, President and Managing Director, Airbus India and South Asia, and Professor Manoj Chaudhary, Vice-Chancellor, GSV. Gati Shakti Vishwavidyalaya (GSV) Vadodara was established under an Act of Parliament in 2022. This collaboration agreement follows the recent announcement by Airbus and Tata to set up a state-of-the-art C295 aircraft facility in Vadodara, Gujarat. has been done This joint effort underscores their shared commitment to promote innovation, design, manufacturing and development within the aerospace sector. During the signing, Rémi Maillard emphasized Airbus' dedication to fostering the aerospace ecosystem in India and their commitment to invest in human capital development. He said, "The partnership with Gati Shakti University will create a strong pool of skilled workers in the country. ​The pipeline will develop which will be ready to serve the rapidly growing aerospace sector in the future." The Railway Minister highlighted GSV's commitment to deep industry-academia partnership, and stressed that all course industry inputs will be prepared together with He stressed the importance of producing industry-ready graduates in the transport and logistics sectors and hailed the agreement with Airbus as an important step towards achieving this objective. This industry-academia partnership will benefit both regular students and working professionals. Work to facilitate co-development and co-delivery of sector-relevant skills courses and programmes. It will also include joint research initiatives, industry exposure for faculty, internship, placement and scholarship programmes.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/business/airbus-and-indian-railways-sign-mou-gati-shakti-university-expected-to-create-15000-jobs-skm-459617.html</t>
-  </si>
-  <si>
-    <t>If the dog bites, do not make these mistakes, learn the important things from the doctor</t>
-  </si>
-  <si>
-    <t>Dog Biting Precautions and Treatment: Hundreds of cases of dog bites are being reported daily across the country. After a dog bite, even the slightest carelessness can prove fatal. Recently, a heart-wrenching case has come to light in Uttar Pradesh's Ghaziabad, in which a child died of rabies about one and a half months after being bitten by a dog. After a dog bite, sometimes people unknowingly do such things, which makes their problem worse. What should be done and what should not be done, what kind of treatment should be done after a dog bite. , such questions have been answered by neuro and spine surgeon Dr. Vikas Kumar on his social media account (@drvikas1111). While sharing the information, he told what should be done first after a dog bite and what not. Pitbull Attack: Pitbull scratched a 4-year-old girl walking in the street... The court said that where there is a question of people's safety, there is negligence. Not tolerated Do this first thing after a dog bite If a person has been bitten by a dog, wash the wound first. Use warm water and soap for this. Do not put any kind of bandage on the wound and if the wound is very deep, use a clean bandage only. Be careful not to use any home remedies or lotions. If you have an over-the-counter antibiotic cream, apply it and see a doctor as soon as possible. Here's how to treat a dog bite. decides Doctors recommend the vaccine in most cases. If the wound is as small as a scratch, a vaccine is the best treatment. However, if the lesion is deep, you will be given an injection of anti-rabies immunoglobulin. Also, treatment for pet dog bites or street dog bites is different. Remember to consult a doctor as soon as possible after a dog bite. Following the doctor's advice can greatly prevent future problems caused by dog ​​bites.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/health/if-the-dog-bites-do-not-make-these-mistakes-learn-important-things-from-the-doctor-skm-459590.html</t>
-  </si>
-  <si>
-    <t>Sarkari Naukri: Staff nurses recruitment has been bumper, September 21 is the last date to apply</t>
-  </si>
-  <si>
-    <t>Sarkari Naukri : Uttar Pradesh Public Service Commission (UPPSC) has recently announced an important recruitment drive for both female and male staff nurses. There are a total of 2,240 posts of Group B, Non-Gazetted Temporary Staff Nurses in Department of Medical Education and Training and Department of Medical and Health Services. To be eligible for the post of Staff Nurse, candidates should possess BSc degree in General Nursing and Midwifery or Nursing, with registration with UP Nurse and Midwife Council. Out of 2,240 vacancies, 2,069 are designated for women, while 171 are available for men. The application process for the recruitment of Staff Nurse is currently underway and will remain open till September 21. Interested candidates can submit their applications through the official website uppsc.up.nic.in. These 5 Tips will come in handy while preparing for typing test for government job RBI Assistant Recruitment, BA can pass Apply, Know DETAILS Do you know the difference between SDM and DC, know the difference in roles and salaries What are the parameters for SI recruitment? Know How Much to Apply for Recruitment Race Application Fee Varies by Category: Unreserved, OBC, and EWS Candidates: Rs.125 SC/ST/Ex-Serviceman Candidates: Rs.65 Candidates for Staff Nurse Recruitment Born on 01 July 1983 Must have taken place before and not after 01 July 2023. SC, ST and OBC will get relaxation of five years, ex-servicemen will also get five years and disabled will get 15 years. The pay packages for staff nurses will be as follows: Pay Scale: Rs.9,300 - Rs.34,800 Grade Pay: Rs.4,600 Unhand Salary: Rs.44,900 Uttar Pradesh offers an excellent opportunity for aspiring staff nurses to get a steady job in the healthcare sector. If you meet the eligibility criteria then apply first before 21st September. For more information and to apply visit the official website. Do take advantage of this opportunity to join the healthcare workforce and contribute to the welfare of the people.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/career/sarkari-naukri-staff-nurses-recruitment-has-been-bumper-september-21-is-the-last-date-to-apply-gh-skm-459577.html</t>
-  </si>
-  <si>
-    <t>Punjab: Big Update on Ghar-Ghar Ration Scheme</t>
-  </si>
-  <si>
-    <t>The Ghar Ghar Ration Scheme of the Punjab Government is going to be launched in the month of November. Under this campaign, ration will be delivered door-to-door to 37.98 lakh families in Punjab. Chief Minister Bhagwant Mann and Delhi CM Arvind Kejriwal's most recent project is a door-to-door ration distribution scheme. Which was brought by the Punjab government twice. For the first time this scheme reached the High Court. After which again the government amended them and passed them in the cabinet. The Punjab government has given full responsibility to its organization Markfed to distribute ration from house to house. These days, the work on this project is going on very fast in Markfed. To implement this scheme, Markfed will also take the help of a management agency that will help in the work from procurement of goods to its distribution. Accepting CM Mann- Chief Minister Bajwa announced to develop Mohali as the hub of the state, Punjab police will now get Dubai police cars, Mann government has 129 vehicles, along with this, Punjab government has allowed Markfed to open 800 model reasonable price shops. has been given and work is being done to open them across Punjab. Punjab has been divided into four zones to deliver ration to every household. And Markfed staff will be deployed on a large scale in this work. Under the scheme, the beneficiaries will have the option of buying a certain quantity of wheat or flour. Punjab has been divided into four zones to implement the door-to-door ration scheme. Zone 1 includes Hoshiarpur, Kapurthala, Nawanshahr, Ludhiana and Jalandhar. Amritsar, Gurdaspur, Pathankot and Tartaran in Zone 2. Zone 3 includes Faridkot, Ferozepur, Moga, Sri Muktsar Sahib, Bathinda and Fazilka. Zone 4 includes Fatehgarh Sahib, Malerkotla, Patiala, Sangrur, Mohali, Ropar, Barnala and Mansa. Depot holders will also be included in this scheme to implement the scheme at ground level. 18000 ration depot licenses are sanctioned in Punjab. Of these, 12,000 are employed while 6,000 license holders are unemployed. Out of these 800 licenses have been given to Markfed. Markfed will equip these depots with modern infrastructure, including consistent staff, basic facilities, CCTV. There will also be cameras, EPOS machines etc.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/punjab/punjab-big-update-on-ghar-ghar-ration-scheme-absh-462241.html</t>
-  </si>
-  <si>
-    <t>Immediate special girdavari order for loss of cotton, cotton and sugarcane crops - Shiromani Akali Dal</t>
-  </si>
-  <si>
-    <t>The Shiromani Akali Dal demands that a special Girdavari be ordered immediately to take stock of the damage to cotton, cotton and sugarcane crops due to heavy rains and strong winds across Punjab. The farmers should be immediately compensated at the rate of Rs. 50,000 per acre for the loss. Farm laborers should also be compensated for loss of work on the lines of the previous Shiromani Akali Dal government. For this, Bhagwant Mann should stop spending crores of rupees on his and Arvind Kejriwal's advertisements. Farmers are already waiting for compensation for the heavy damage to their paddy crop during the floods in July. The Chief Minister should fulfill his promise of compensation for the loss of farmers/farm workers, even chickens and goats. The old parliamentary building should be dedicated to Guru Teg Bahadur Sahib: Harsimrat Kaur-Sukhbir is trying to form an alliance with BJP, BJP is not giving a hand" Harsimrat Badal to end Akali-BJP alliance Efforts started for 'Shrimani Akali Dal's senior leader Prakash Chand Garg left the party</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/punjab/immediate-special-girdavari-order-for-loss-of-cotton-cotton-and-sugarcane-crops-shiromani-akali-dal-462252.html</t>
-  </si>
-  <si>
-    <t>The season of running AC is going, due to low demand, the price has dropped significantly, brands like LG, Panasonic are on the list.</t>
-  </si>
-  <si>
-    <t>Best Discount on AC: The weather has started taking a curve. Now gradually ac. And the need for coolers will begin to decrease and then in the next month or two the fans will also stop. Demand for AC and cooler also increases in summer season, due to which the price of AC also increases. But now the demand is decreasing due to the changing weather, due to which air conditioners are being made available at cheaper prices. Flipkart is running a sale where electronic items, gadgets, appliances are available at very low prices. have been Let's find out which AC home you can bring cheap. Customers can bring Daikin 2023 model 0.8 ton 3 star split AC home at 30% discount. After the discount, this AC is being made available at Rs 25,999 instead of Rs 37,400. The AC can be bought at a discount of Rs 6,000 under the exchange offer. It comes with an annual power consumption of 548.84kWh. It is perfect for rooms up to 90sqft. 1 year warranty on product and 5 year warranty on compressor LG AI Convertible 6 in 1 Cooling 2023 Model 1.5 Ton 3 Star Split AI Dual Inverter AC can be bought at 47% discount. This AC can be bought for just Rs 35,990 instead of Rs 78,990 from the customer sale. The special thing is that a discount of Rs 6,000 is being given on it under the exchange offer. It comes with an annual power usage of 852.44kWh. It is perfect for rooms ranging from 111-150sqft. 1 year warranty on its product and 5 year warranty on the compressor. Panasonic Convertible 7 in 1 2023 model comes with AI mode cooling. It is 1 Ton 3 Star Split Inverter AC. 30% discount is being given on this AC. After the discount, customers can buy this AC for Rs 33,490 instead of Rs 48,100.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/lifestyle/price-of-air-conditioner-has-dropped-significantly-sk-462304.html</t>
-  </si>
-  <si>
-    <t>Weather Update: Heavy rain will occur in 24 states including Punjab-Haryana, read IMD's latest update</t>
-  </si>
-  <si>
-    <t>Weather Update: The weather has once again taken a turn for the worse in many states including the national capital Delhi. It has started raining in many places since last few days. It has been raining in Delhi-NCR since last Friday. According to the Meteorological Department, it is likely to rain in Delhi today. According to the forecast of the department, the sky will remain cloudy today. Strong winds are also likely. According to the report of India Meteorological Center today, there is a possibility of heavy rain at different places in south-west Madhya Pradesh and south-east Rajasthan. Weather Update: Rain alert issued in these 5 districts of Punjab, heavy in Punjab, Haryana and Chandigarh Rain, IMD has issued an alert till September 19, rain in Punjab-Haryana and Rajasthan, the weather will remain like this for the next 5 days... Weather Alert: Heavy rain forecast in Punjab-Haryana and UP today, heavy rain in Gujarat today and tomorrow is likely According to AMD, heavy rain is likely to occur in Saurashtra and Kutch till September 20. Light to moderate rain is expected in Uttarakhand today. A storm may also come. According to a Skymet Weather report, Delhi-NCR is likely to receive the next round of rain around September 23 or 24. Light to moderate rain at isolated places over Andaman and Nicobar Islands, Tamil Nadu, Kerala and Konkan and Goa today. It may rain heavily. Apart from this, light to moderate rain is likely over Manipur, Mizoram, Tripura, Odisha, Jharkhand and Himachal Pradesh, Uttarakhand, Punjab, Haryana, Interior Tamil Nadu, South Interior Karnataka and Lakshadweep. Apart from this, light rain is likely to occur in Vidarbha, Madhya Maharashtra, Coastal Andhra Pradesh and North East India. These states received heavy rain. Talking about the weather in the last 24 hours, Southwest Madhya Pradesh received heavy to very heavy rain. . Andaman and Nicobar Islands and North Tamil Nadu received moderate to heavy rains. Apart from Gangetic West Bengal, Jharkhand, Uttar Pradesh, Haryana, Rajasthan, North Punjab, Himachal Pradesh, Jammu Division, East Gujarat, Konkan and Goa, Coastal Karnataka, Kerala and Lakshadweep received light to moderate rains.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/national/punjab-weather-udpate-rainfall-imd-alert-delhi-ncr-weather-news-gujarat-madhya-pradesh-uttarakhand-rajasthan-rain-alert-gw-462050.html</t>
-  </si>
-  <si>
-    <t>Sony Xperia's strong phone entry soon, Xiaomi 14 Pro will give a tough fight to Galaxy S24, leaked features</t>
-  </si>
-  <si>
-    <t>Entry of Sony Xperia 1 VI is coming soon. It is being said that this next 'One' series phone of the company will be launched next year. Although the company has not disclosed this phone, but various information about the phone has already come out. This phone may come as the successor of Sony Xperia 1 V, which the company launched in May this year. The Sony Xperia 1 V features a 6.5-inch OLED display, which supports 21:9 CinemaWide 4K HDR and a 120Hz refresh rate. In a recent Reddit post, a user hinted that the Japanese phone maker is planning to launch its next ' One' smartphone may launch at MWC 2024 at the beginning of next year. It is said that this smartphone will give a tough competition to Samsung Galaxy S24 series and Xiaomi 14 Pro. Apart from this, the post also reveals that the phone could be equipped with a new large telephoto sensor offering a 6x zoom camera. It is also expected to feature Sony's Clear Image zoom capabilities. Apart from this, it has also been revealed that the Sony Xperia 1 VI will come in sustainable packaging that can use recycled materials. However, Sony has not revealed anything about the upcoming smartphone. The Sony Xperia 1 VI will come as the successor of the Xperia 1 V, so talking about the features of the Xperia 1 V, it will have a 6.5-inch OLED display with 21: 9 launched with CinemaWide 4K HDR, 120Hz refresh rate and 240Hz touch sampling rate. The phone is equipped with Snapdragon 8 Gen 2 SoC. It has 12GB RAM and 256GB internal storage.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/lifestyle/sony-xperia-powerful-phone-entry-soon-sk-462253.html</t>
-  </si>
-  <si>
-    <t>Petrol Diesel Prices: Petrol became cheaper in Punjab, prices increased in Rajasthan...</t>
-  </si>
-  <si>
-    <t>There has been no change in the prices of crude oil in the international market today. WTI crude is selling at 90.77 dollars per barrel. Along with this, Brent crude is doing business at 93.93 dollars per barrel. The country's oil marketing companies have released the latest prices of petrol and diesel. Fuel prices are revised every day at 6 am in India.Petrol Diesel Price: What is the rate of petrol and diesel today, 10 percent pollution tax on diesel cars in your city now-Union Minister Gadkari Charge once and Drive 180 km, this electric bike Petrol Diesel Price: There has been a change in the prices of petrol and diesel, to fill the tank Today there has been no change in the prices of petrol and diesel in most of the states of the country. However, petrol has become cheaper by 48 paise in Punjab. Along with this, the price of petrol has increased by 6 paise in Rajasthan. In Uttar Pradesh, the price of petrol and diesel has increased by 10 paise. Petrol-Diesel has become expensive in Himachal too. Petrol and diesel prices in all four metros - Delhi petrol Rs 96.72 and diesel Rs 90.08 per liter - Mumbai petrol Rs 106.31 and diesel Rs 94.27 per liter - Kolkata Petrol Rs 106.03 and Diesel Rs 92.76 per litre- Petrol Rs 102.63 and Diesel Rs 94.24 per liter in Chennai How much change in prices in these cities?- Petrol Rs 96.94 and Diesel Rs 90.11 per liter in Noida- Petrol Rs 96.57 in Lucknow and diesel Rs 89.76 per litre-Petrol Rs 107.24 and diesel Rs 94.04 per liter in Patna-Petrol Rs 84.10 and diesel Rs 79.74 per liter in Port Blair</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/punjab/petrol-diesel-prices-in-bihar-haryana-uttar-pradesh-noida-patna-ghaziabad-on-17-september-2023-check-latest-rates-gw-461833.html</t>
-  </si>
-  <si>
-    <t>The roof of the house collapsed in Railway Colony, 5 including 3 children died</t>
-  </si>
-  <si>
-    <t>Lucknow- Big news is coming from Lucknow, the capital of Uttar Pradesh, where the roof of a house has collapsed in the old Alambagh Railway Colony. It is reported that five people, including three children, died due to the collapse of the roof of the house. It is being told that the railway employee Satish Chandra, his wife and their three children have died in this incident. According to the information received, this colony is built on the edge of Anand Nagar Fateh Ali intersection of Alambagh. After the incident, the police and fire brigade team has reached the spot. Relief operations are ongoing at the spot. After this incident there was noise on the spot and people started running here and there. Painful death of 3 friends, Lashantez was cut and taken out by the car. Heavy rain, painful death of 3 people. A woman died in a road accident due to a private school bus overturning in Dera Baba Nanak, the family will get 61 billion rupees compensation Railway employee Satish Chandra (40), his wife Sarojni Devi (35), son Harshit ( 13), daughter Harshita (10) and son Ansh (5) have died. The police reached the spot, took out the bodies from the debris and sent the bodies for post-mortem. Apart from this, relief and rescue work is being done considering the possibility of other people being trapped there. Chief Minister Yogi Adityanath has taken notice of the accident in Lucknow. The Chief Minister has expressed his condolences to the bereaved families of the deceased. The Chief Minister has directed the officials of the district administration to immediately take the injured to the hospital and give them proper treatment. Along with this, he also wished for the speedy recovery of the injured. The officials of the district administration have been instructed to reach the spot and speed up the relief work. The Chief Minister has given instructions for proper treatment of the injured.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/national/up-news-roof-of-house-collapsed-in-alambagh-railway-colony-lucknow-5-including-3-children-died-cm-yogi-reached-hospital-ak-461614.html</t>
-  </si>
-  <si>
-    <t>Ex-MLA Satkar Kaur Gehri and her husband arrested by vigilance in the case of making more property than income</t>
-  </si>
-  <si>
-    <t>Chandigarh: The Punjab Vigilance Bureau on Monday arrested Satkar Kaur Gehri, former MLA from Ferozepur Rural and her husband Jasmail Singh Gehri, residents of village Shakur, district Ferozepur, after a vigilance investigation in the case of making assets beyond their income. Information in this regard The spokesperson of Punjab Vigilance Bureau said that during the investigation of this case, it has been found that the former MLA with the connivance of her husband amassed more property than the known sources of income during her tenure as a member of the Legislative Assembly. He further stated that during the period covered by this investigation, his total income from all sources was Rs.1,65,34,053, while his total expenditure during the same period was Rs.4,49,19,831. As a result, they spent Rs 2,83,85,778.41 more, which represents a 171.68% increase. Zira's Liquor Factory closed with immediate effect, the first district of Punjab in terms of cleanup of heritage waste, Baniafirozpur, when the police picked up the rogue bride from the mandap, 4 members of the 'Robbery Bride', Kaboobulare also said that the section of the Prevention of Corruption Act against the two persons. 13(1) and 13(b) and under section 120-B of the Indian Penal Code (IPC) a case has been registered at the Vigilance Bureau Police Station of Ferozepur. He said that further investigation of this matter is going on.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/punjab/ex-mla-satkar-kaur-gehri-and-her-husband-arrested-by-vigilance-in-the-case-of-making-more-property-than-income-ak-462305.html</t>
-  </si>
-  <si>
-    <t>The painful death of 3 friends, the bodies removed by cutting the car</t>
-  </si>
-  <si>
-    <t>A major accident took place on the Amritsar-Pathankot National Highway at Nowshera Majha Singh, a town near Batala. A trolley and a Swift Desire collided with each other. In the accident, three of the four people in the vehicle died and one is said to be injured. All the three persons killed in the accident belong to Dhariwal city. Gurdaspur News | A major accident occurred due to a private school bus overturning in Dera Baba Nanak #local18 Which way did the youth of Punjab go? Vaccinations La-La hollow bodies Agriculture: Farmers were made aware to make the district Gurdaspur pollution-free Man jumped from the second floor of the house to avoid monkeys, his legs were broken Electricity did not come to the house for the last 2 months, from the administration Akke family now took a big step! Dharna continues for a year and a half to go to Kartarpur Sahib without passport, 'Do not weigh the work of devotion with money' Gurdaspur News: Daughters of new village chiefs brought their village on the map of tourism Gurdaspur News | Health fairs will be organized in Gurdaspur every Saturday till October 2. Heavy rains raged, 3 people died painfully. Shopkeepers, suffering from mining, stopped the trucks, lashed out against the administration.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/gurdaspur/3-friends-died-one-injured-in-road-accident-batala-gurdaspur-local18-hs-local18-462263.html</t>
-  </si>
-  <si>
-    <t>Golden Temple Sri Harmandir Sahib decorated with flowers on the first Prakash Purab of Sri Guru Granth Sahib. #Local18</t>
-  </si>
-  <si>
-    <t>Nitish Sabharwal, Amritsar Sachkhand Sri Harmandir Sahib where daily thousands of devotees come to pay obeisance and seek God's blessings for the peace and comfort of their families. The devotees consider themselves lucky to come to the center of this spirituality. A kirtan decorated on the occasion of Prakash Purab of Sri Guru Granth Sahib at Khalsa College will be dedicated to the 150th centenary of the Guhar Singh Sabha movement on September 21. A seminar was held at the Khalsa College under the 'eye donation awareness campaign'. The salon owner was attacked by the youth, his finger was broken, and his finger was left in the street. Various Gurdwara Sahibs have donated 6 lakhs 50 to the Shiromani Committee for natural calamities fund. A check of Rs.1000 was handed over to Sri Guru Granth Sahib ji. Sajya Nagar Kirtan on the occasion of the first Prakash Purab of Sri Guru Granth Sahib Ji. #Local18 An incident happened with a person who stopped the vehicle and went to take medicine for two minutes Ganesh Chaturthi 2023. The festival of Ganesh Chaturthi is near, there is excitement in the markets. #Local18 Golden Temple. See the supernatural Deepmala and fireworks from Sachkhand Sri Harmandir Sahib. Advocate Dhami condemns exclusion of Gursikh player from the competition for not wearing a helmet in #Local18 sports competition On the occasion of the first Prakash Purab of Sri Guru Granth Sahib Ji, Sachkhand Sri Harimandar Sahib was decorated with colorful flowers. On this occasion, the circumambulation of Sachkhand Sri Harmandir Sahib was decorated with charming flowers. Often on the occasion of Prakash Purab and Gurmati celebrations, one can see a supernatural feeling of devotion among the devotees, due to which thousands of devotees pay obeisance at this holy Gurughar. Sri Darbar Sahib was decorated with flowers ordered from different states and artisans from other states were also invited for decoration on this occasion. On the occasion of the first Prakash Purab of Sri Guru Granth Sahib Ji, Gurdwara Sri Ramsar S</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/amritsar/golden-temple-sri-harmandir-sahib-decorated-with-flowers-on-the-first-prakash-purab-of-sri-guru-granth-sahib-ji-amritsar-local18-461560.html</t>
-  </si>
-  <si>
-    <t>Tantric used to rape boys by threatening to make pigeons, two friends got fed up and took this horrible step.</t>
-  </si>
-  <si>
-    <t>Crime News: Police have arrested two youths in the case of the murder of Tantrik, a resident of Rudauli area of ​​Khandsa police station area of ​​Ayodhya district of Uttar Pradesh, along with this, the ax used in the murder has also been recovered. The name of the deceased was Hafiz Saqib and he used to make speeches as well as hurling crops. In the guise of this grudge, he was physically abusing these two youths by making them sometimes a rooster, sometimes an animal and sometimes a genie. Fed up with this physical abuse, the two friends killed Tantrik with an ax while he was sleeping at night. SP Dehat AK Sonkar said that Khandsa police station in-charge Manoj Kumar was involved in the investigation and investigation of the case of murder and concealment of evidence. The team arrested Mohammad near the bridge of the double canal in village Ghatauli. Gulfam resident Ghatauli police station Khandasa, Ayodhya and Saleem resident Bhadav Kalyanpur police station Piparpur district Amethi have been arrested. During interrogation, they confessed to killing Saqib with an ax and one ax was recovered from both of them. Find out which 5 things seem to be good on the part of the godfather. Do this measure with Tulsi, the ancestors will be happy and give blessings. Both the accused who came into contact are friends and had previously gone to study in a Madrasa located in Rudauli. There both speakers came in contact with Hafiz Saqib. Saqib, who was notorious for his evil tendencies, lured them under the pretext of gaining spiritual powers and started physically abusing them both. Fed up with this, both of them hacked Saqib to death with an ax while he was sleeping near Gulfam's house in Turkahia Majra of village Ghatauli on Friday night and threw the body in a bundle of polythene tarpaulin in the morning. were going After this, the incident came to light after the bike went out of control and overturned on the speed breaker. The police identified the deceased from Aadhaar card and bike registration and registered a case on the complaint of the deceased's sister who lives in Paranga police station area.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/national/two-arrested-for-ayodhya-tantrik-murder-who-was-committing-rape-by-threatening-boys-tc-462195.html</t>
-  </si>
-  <si>
-    <t>BJP councilor along with his colleagues arrested for supplying illegal liquor and drug capsules</t>
-  </si>
-  <si>
-    <t>In Himachal Pradesh, the Anti-Narcotics Task Force conducted a major operation against drugs in Una's Gargaret. In such a situation, now the Una police have also come into action. The Anti-Narcotics Task Force recovered about 28560 banned capsules during an operation in Gargret 2 days ago. After this operation of ANTF, the Una Police also came into action and by exposing the further layers, 210 bottles of illicit liquor and 25000 banned capsules were recovered. The men of the village were killed and thrown into the canal... the police solved it. The bodies of the two found on the bed, which happened with the person who stopped the cart and went to take medicine for two minutes, in this big case of drug trafficking that came to light in the Kondagagaret area, the police have registered different cases and arrested four persons so far. Among the main ringleaders, the name of councilor Varinder Sharma from Nagar Panchayat Gagret is prominent. On the third consecutive day of the operation, they have succeeded in seizing a large consignment of banned drugs. On the evening of September 14, a team of Anti-Narcotics Task Force Kangra intercepted a consignment of around 28560 banned capsules being brought in a pickup. After this, the police arrested BJP-supporting councilor Varinder Sharma alias Bindu of Nagar Panchayat Gagret along with the operator of the medical store. After this, the Una police team raided the house of the accused on Saturday morning and recovered 210 packs of illegal liquor. The matter did not end here, the police received information about the arrival of another consignment of banned and narcotic substances in the same area. On the basis of this, the police team succeeded in recovering about 25,000 drugs and drug capsules late on Saturday evening. District Police Chief Arijit Sen Thakur says that the police is continuously taking action in this case. Various cases have been registered against the main accused Virender Sharma alias Bindu in the case of prohibited drugs and illicit liquor. More people will be arrested as the investigation continues. SP Una Arjitsen Thakur said that the police will also conduct a financial investigation of the accused in this case, so that the property collected from this drug business can be ascertained.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/national/himachal-pradesh-una-banned-drugs-and-illegal-liquor-supplier-bjp-councilor-arrested-by-una-police-gw-462175.html</t>
-  </si>
-  <si>
-    <t>Lawrence called Dawood's 'Khas' for Faruti, got this reply later...</t>
-  </si>
-  <si>
-    <t>In the case of Mahadev app scam, there has been a big revelation in the investigation of the police and investigative agencies. Information has come to light that gangster Lawrence Bishnoi demanded ransom from accused Saurabh Chandrakar. However, it all backfired on gangster Lawrence Bishnoi and Saurabh Chandrakar threatened him (Lawrence). Don't call and ask for money by mistake next time. Video call with Monu Manesar, the main accused of Lawrence Bishnoi Dinuh violence Viral Mohali Police arrested Gangster Anil Bishnoi Sidhu Moosewala's close friend Karan Aujla's Lawrence Bishnoi's shooter Sam Moosewala's killer Sachin Thapan is not a relative of gangster Lawrence Bishnoi, investigation has revealed that Mahadev app promoter Saurabh Chandrakar has links with underworld don Dawood Ibrahim. Lawrence Bishnoi was shocked after hearing Dawood's name. Let us tell you that the Enforcement Directorate (ED) is constantly cracking down on the Mahadev app case. Along with this, it is being suspected that Bollywood stars as well as people from the underworld will have attended Saurabh Chandrakar's wedding. Mahadev app owner Chandrakar spent Rs 200 crore cash on his wedding. In fact, in the month of February, online betting platform Mahadev book app owner Saurabh Chandrakar got married in the United Arab Emirates. Meanwhile royal arrangements were made. The video of which is now in the hands of Indian agencies. Saurabh Chandrakar's wedding ceremony was attended by many Bollywood singers, actors and Pakistani singers and was paid more than 200 crore rupees through hawala.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/national/mahadev-book-app-online-betting-saurabh-chandrakar-dawood-ibrahim-lawrence-bishnoi-extortion-money-gw-462112.html</t>
-  </si>
-  <si>
-    <t>Student returning from school pulled dupatta, died due to fall, police in Encounter...</t>
-  </si>
-  <si>
-    <t>A big news has come out from Ambedkarnagar in Uttar Pradesh. Here the police have arrested two miscreants after the encounter. These two accused were trying to escape by snatching the police rifle. These bikers had pulled the dupatta of the student who was riding the bike, due to which she lost her balance and fell on the ground. Meanwhile, she collided with another motorcycle coming from behind. After the death of the student, the three accused tried to escape from the police custody. The police encountered the young man in the middle of the night, the family said he was murdered. 3 ex-police officers sentenced to life imprisonment in Hamal 1992 fake police encounter Family serving country for three generations, two-year-old daughter and one son It has been reported that the arrested accused also tried to take away the policemen's guns. And fired shots too. After this, the police retaliated, in which Shahbaz and Faisal were shot in the legs, while the third accused suffered a broken leg due to a fall while running. In fact, on September 15, a class 11 student was returning from school on a bicycle. A student's dupatta was pulled by these mischievous elements. Due to this, she lost her balance and fell in the middle of the road along with the bicycle. After this, a bike coming from behind crushed the student. The student died in this incident. The father of the deceased girl said that his daughter was a biology student and was very smart in studies. His dream was to become a doctor. About the incident, Ambedkar Nagar SP Ajit Sinha said that Shahbaz and Faisal, accused of attacking the student, were shot in the leg in the police encounter when they tried to run away during the medical. The leg of the third accused is broken. The official said that a case has been registered under Section 302 of IPC as well as POCSO Act. After the girl's death, the SP has suspended the in-charge of Hanswar police station on charges of negligence.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/national/student-dies-due-to-teasing-in-ambedkar-nagar-police-encounter-with-miscreants-gw-462091.html</t>
+    <t>https://punjab.news18.com/news/sports/asian-games-2023-india-won-hockey-gold-path-cleared-for-paris-olympics-ak-467478.html</t>
+  </si>
+  <si>
+    <t>'No one's interference will be tolerated', CBFC in action mode after actor Vishal's allegations</t>
+  </si>
+  <si>
+    <t>A few days ago, Dakshya Vishal made sensational allegations against the Censor Board. Actor-producer Vishal had alleged that the Censor Board demanded a bribe to clear his film 'Mark Antony'. His allegations created a stir in the industry and the media. After this, the head of the Central Board of Film Certification i.e. CBFC and the Ministry of Information and Broadcasting of the Government of India took notice and said that action would be taken against the accused. A big update on the same issue has now come out. 'Mark Antony' fame actor Vishal has released a video exposing the rigging happening in the Censor Board. He said that he had to spend Rs 6.5 lakh to get the Hindi version of his film 'Mark' Antony approved and it was not digestible. The board then said in a statement today, "We have thoroughly reflected and analyzed the recent incident. The incident has been taken immediate notice and is being seriously investigated." We will get to the root of it and strict action will be taken against the accused accordingly," CBFC said in a statement today. What Punjabi actor Gugu GillGadar said against drugs 2 BO Day 8: Tara Singh beats Pathan, Dangal behind 'No film should be made on Sushant's life...' Father appeals in Delhi HC The allegations surfaced on social media when his film was released in Hindi. His post also gave all the details of the transaction for the film certificate. Central Board of Film Certification Chairman Prasoon Joshi has called a meeting in this regard. Following this, CBFC has issued a special advisory for filmmakers and producers. The CBFC Chairman said that interference of any agent or third party in the name of certifying the films will not be tolerated. Along with this, in this statement, the CBFC has also said that 'to certify or pass the films The entire process is online, but now more strictness will be done in this regard. CBFC certifies around 12,000-18,000 films every year. This work requires a lot of hard work. In such cases, producers are requested to avoid any haste and follow the online process only.” It also said. Joshi had earlier demanded a CBI probe into Vishal's allegations. The film 'Mark Antony' was released on September 15 while its Hindi version was released on September 28</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/entertainment/no-one-interference-will-be-tolerated-cbfc-in-action-mode-after-actor-vishal-allegations-skm-466796.html</t>
+  </si>
+  <si>
+    <t>This DM is a super woman who passed UPSC while managing children, job and home, know why in the discussion</t>
+  </si>
+  <si>
+    <t>DM Monika Rani of Uttar Pradesh's Bahraich district is currently in the headlines. DM Monika Rani has done such a job which is being appreciated everywhere. In fact, he gave a grand farewell to Inder Bahadur, who was posted as a cook in the DM's residence for the last 32 years. She attended his farewell function with the family. Let's know about DM Monica Rani. Bahraich DM Monica Rani became an IAS officer by securing 70th rank in UPSC 2010 All India. He was 29 years old at that time. His mother was a school teacher. Along with this, she was also fulfilling her domestic responsibilities. Both sons of Nand Lal, who ran a small grocery shop, became judges. Collector Salary: How much does a District Collector get in India? What do the students who pass UPSC learn in the training of the transfer of officers, know that she wanted to become an IAS from childhood According to the news, Monica Rani wanted to become an IAS from childhood. He was greatly inspired by his brother. Whom he had seen reading for hours. But something happened that they got married in the year 2005. She also became a mother of one child and got a job as a teacher in a government school in Bijwasan, Delhi. UPSC with full-time maid and baby When Monica Rani's baby was eight months old, she started preparing for UPSC. She used to get up early, finish the housework and study for some time. After that, after coming back from school, she would take care of the children and do housework. Then she would study for a few hours at night. Her husband was posted in Kolkata. Monica juggled time between household responsibilities, full time teaching job and taking care of children and finally in the year 2010, she not only cleared UPSC but also got 70th rank.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/career/this-dm-is-a-super-woman-who-passed-upsc-while-managing-children-job-and-home-know-why-in-the-discussion-skm-466571.html</t>
+  </si>
+  <si>
+    <t>Sarkari Job 2023: Golden opportunity of government job for women, salary up to one lakh rupees</t>
+  </si>
+  <si>
+    <t>Sarkari Job 2023, JSSC JLSCE Recruitment 2023: It is a great opportunity for women to get a government job in Jharkhand. Jharkhand Staff Selection Commission has announced Female Supervisor Competitive Exam 2023 offering salary above Rs.1 Lakh. The objective of this recruitment drive has decided to fill 444 vacancies for women supervisors in the state with special quota for various categories. Let's know the details of these vacancies: These 4 part-time jobs are beneficial for unemployed people aged 25 years SBI Only three days left to apply for PO recruitment, apply todayCareer Tips: Build a career by doing BBA after 12th, you will get many government jobs RBI Recruitment 2023: Reserve Bank of India Notification for 1000 Assistant Recruitment Today 187 Vacancies for SC 101 Vacancies for ST 35 Posts for Backward Classes 35 Posts for Backward Classes 42 Posts for Very Backward Classes 44 Posts for EWS Online applications are currently being accepted for this recruitment drive started from 26th September. The last date of the recruitment drive has been fixed on 25 October. The application fee can be paid by October 27, and interested candidates can apply on the official website panjikaran2023.com. For better information you can check the official notification. Eligibility: To apply, women candidates should have graduation degree in Sociology, Psychology, or Home Science. Further, the age of the candidates should be between 21 to 38 years, age relaxation is available for reserved category candidates.Salary: The successful candidate will draw a salary ranging from Rs.35,400 to Rs.1,12,400 under Pay Matrix Level 6. Selection Process: The selection process will consist of computer based examination with final merit list based on the candidates' exam scores. The exam will consist of multiple choice questions. Don't miss this unique opportunity to get a government job with attractive salary and apply today.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/career/sarkari-job-2023-golden-opportunity-of-government-job-for-women-salary-up-to-one-lakh-rupees-gh-skm-465982.html</t>
+  </si>
+  <si>
+    <t>SuperFood: Must include thyme in the diet, there will be 5 remarkable benefits</t>
+  </si>
+  <si>
+    <t>Thyme is not just a delicious herb that enhances the flavor of your dishes but also offers many health benefits making it a must-have nutrient in your diet. Whether fresh or dried, thyme contains compounds that can positively impact your health in many ways. Let's know about these... Blood pressure is controlled: Using thyme in cooking can not only improve the taste but also help in reducing high blood pressure, as high salt intake increases blood pressure. It is a common cause of increased pressure. How does the mobile phone harm children's health? Know from experts papaya leaves, giloy and goat's milk can be dangerous in dengue, RIMS not only condoms, men can also do contraception with these methods this medicinal plant is a 'boon', from facial wrinkles to joint pain Up to...Cold Relief: Thyme contains thymol, which is found in many cold remedies. Consuming thyme provides relief from cold symptoms, chest pain and cough. Infection Fighter: Thyme is rich in anti-inflammatory compounds, which makes it effective against bacterial and viral infections. It can also soothe skin problems such as burning and itching. Natural Insect Repellent: Thyme oil is a natural insect repellent. It can help ward off mosquitoes and provide relief from skin irritation and itching. Relieves Gas Thyme: Consuming thyme can relieve gas problems by not stimulating excess stomach acid production. It supports a healthy digestive system, helps digest food quickly and reduces the risk of gas or ulcers. Thyme is a nutritional powerhouse, offering potassium, vitamin A, vitamin C, and magnesium. A tablespoon of thyme contains minimal calories, carbohydrates and fat, making it a valuable addition to your daily diet for better health.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/health/superfood-must-include-thyme-in-the-diet-there-will-be-5-remarkable-benefits-gh-skm-466507.html</t>
+  </si>
+  <si>
+    <t>Daily consumption of this fruit can eliminate 'high cholesterol', know how</t>
+  </si>
+  <si>
+    <t>High cholesterol problem is becoming common nowadays. The problem of high cholesterol is on the rise, especially among young people who sit for long hours at desks and prefer junk food while neglecting physical activity. Too much cholesterol can clog our arteries, disrupt blood flow and lead to life-threatening conditions like heart attack and stroke. Therefore, controlling cholesterol levels is very important. Many people resort to drugs to control high cholesterol, but natural methods can be more beneficial. You can control cholesterol naturally by following a healthy diet, regular physical activity, and a healthy lifestyle. In addition, certain fruits can help reduce bad cholesterol in the body. One such fruit is the apple, which is known for its delicious taste as well as its rich nutritional content. These 5 Miracle Foods to Feed Kids Before Exams Will Increase Brain Emotions in Specific Areas of the Body Itching? So know its cause and remedy, can we get cancer due to lack of vitamin D? Know the real truth This simple-looking leafy vegetable is amazing, know how apples provide a powerful ally for those dealing with cholesterol problems. Many studies have shown that consuming apples has cholesterol-lowering benefits. Eating an apple or two a day can help control cholesterol levels. According to the Daily Mail, daily consumption of apples can lower bad cholesterol (LDL) levels. Apples are rich in bioactive polyphenols and fiber, which enter the bloodstream and lower bad cholesterol levels. They also promote lipid metabolism and cardiovascular health. In a 2012 American study, participants who ate one or two apples daily for four weeks saw a significant reduction in bad cholesterol levels. Over the course of the study, the middle-aged individuals' cholesterol levels dropped by an impressive 40%. So adding apples to your daily routine can be very beneficial.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/health/daily-consumption-of-this-fruit-can-eliminate-high-cholesterol-know-how-gh-skm-466758.html</t>
+  </si>
+  <si>
+    <t>Follow these vastu rules in the bedroom, peace and happiness will come in the house</t>
+  </si>
+  <si>
+    <t>Vastu Shastra is highly recognized in Hinduism. People follow the rules laid down in Vastu Shastra in many activities of their life. There is a belief that by following the rules of Vastu, one gets happiness, peace and prosperity in life. If a person violates the rules of Vastu, then it causes Vastu guilt. Accordingly, today we are going to tell you Vastu rules regarding the main rooms of the house i.e. bedrooms. If you also want to live your married life with love and financial progress, then follow these vastu rules - Direction of bedroom Talking about vastu shastra related to bedroom, the first question is its direction. It is recognized that the bedroom should always be in the south-west direction. Similarly, the bedroom should never be built in the north-east direction of the house. Color of the bedroom The color of the bedroom is also related to psychology. The color ideas of modern psychology and Vastu Shastra are quite similar. According to them, the color of the walls of the bedroom should be simple and sober, dark colors with more flashiness should never be used in the bedroom. Similarly, the color of the bedroom walls should not be black. This creates the problem of not sleeping. Vastu Shastra's recognition of installing mirrors in the bedroom instead of mirrors is that mirrors should not be installed. But there is one thing that should not be placed in front of the bed in the bedroom. By doing this, the problem of restlessness and insomnia arises. The place of the bed The place of the bed in the bedroom is of special importance. According to Vastu, it is always beneficial to keep the bed in the south-west corner. Doing this brings stability in life. Never put a bed under a beam or a girder, it causes difficulty in sleeping. According to furniture, there should be very little furniture in the bedroom apart from the bed. So do not keep any unnecessary furniture in the bedroom. There must be a certain place in the bedroom to keep everything, so that the bedroom remains clean and tidy. Selection of pictures Pictures fill the emptiness of the walls and add to the beauty of our home. But choosing the right pictures is very important. Never put up pictures of fighting, fighting and negative symbols in the bedroom. Pictures related to memorable moments of your life, scenes of nature etc. are good to place in the bedroom.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/lifestyle/follow-these-vastu-rules-in-the-bedroom-peace-and-happiness-will-come-in-the-house-gh-skm-466637.html</t>
+  </si>
+  <si>
+    <t>OMG this woman trying to prove herself alive in government papers for the last 19 years, is not getting any essence.</t>
+  </si>
+  <si>
+    <t>You may remember Pankaj Tripathi's Bollywood film Kaazh which came out in the year 2021. Actor Pankaj Tripathi, who plays the role of Bharat Lal in it, moves from court to different offices for years to prove himself alive on paper. A similar story has emerged from Sagar district, where a 59-year-old woman has been appealing to panchayats, SDMs, collectors, commissioners and MLAs for the past 19 years to prove herself alive on paper, but no one has responded. did not give .The problem is not being solved. Due to this certificate, the woman is neither getting the benefit of compassionate appointment, nor PF, nor any government scheme. He is forced to live on the help of other people for the past several years. In fact, the difference between this story on reel and real life is that Bharat Lal finally declares himself alive on paper after a long struggle. The struggle of this old lady of Sagar with growing wrinkles on her face is getting longer but the status quo is still there. Matra Navami day is special in Pitru Paksha, know its importance and method of donating Tarpan Pitru Paksha 2023: This year Shradh will last not 15 but 16 days, know what is the reason, find out with these easy methods whether there is pitra dosha in the horoscope or not, the beautiful building being prepared in the style of Taj Mahal in Madhya Pradesh is 40 years ago, the certificate of a 59-year-old woman, Sagar Sadar Mulayam Singh, the husband of 59-year-old woman Suman Singh Thakur, was working as a fighter in a coal mine in Anupur district. He died of the disease in 2003. Now the family had to face the challenge of making a living. Son Rahul was very young, due to which the mother herself applied for Rahm's appointment. Here, a paper was found under the woman's feet stating who had given the land, according to which she had died 40 years ago in 1983. This was announced by the Makrauniya Gram Panchayat. Such death certificate was issued in the year 2004. Since then, the woman has been visiting government offices to get her death certificate cancelled. Due to this letter, not only the woman did not get the appointment on the basis of compassion, she could not avail any government scheme either. The mother and son are spending their days in someone else's house. The son is forced to work for other people. The mother and son fought in the court and won but the papers are still intact. The officials are unaware of the matter... In this matter, on the one hand, the officials of the district and municipal corporation seem to avoid saying anything. now</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/ajab-gajab/omg-this-woman-trying-to-prove-herself-alive-in-government-papers-for-the-last-19-years-is-not-getting-any-essence-skm-467331.html</t>
+  </si>
+  <si>
+    <t>The appearance of schools is changing with the appointment of campus managers: Harjot Singh Bains</t>
+  </si>
+  <si>
+    <t>Chandigarh: Punjab School Education Minister Harjot Singh Bains said that with the appointment of campus managers, the look of government schools in Punjab has started to change. He was presiding over a one-day training of campus managers here today. During his presidential speech, Mr. Bains said that the Punjab government led by Chief Minister Bhagwant Singh Maan has launched an education revolution to improve the functioning of government schools in Punjab. Under this, the campus managers have been appointed. Changed timings of schools in Punjab, know the new Timing. Under RTE, major action has been ordered against schools that do not give free admission. Tomorrow, all government offices and educational institutions will be closed in this district of Punjab. A big announcement for the students... He said that with the appointment of the campus manager, the pressure of the school maintenance work on the school principal has remained negligible, due to which the principal is now in the direction of improving the educational environment in the school. are working He said that good results have started coming from the appointment of campus managers. Bains said that in the last one and a half years, he has visited many schools in the state of Punjab and now when a person mentions the name of a school, all the problems related to that school come to mind. He appealed to the campus managers to work as an arm of the school principal and give the best appearance to the schools. The school education minister appealed to the campus managers to fulfill the new responsibility with service spirit and said that they should create a safe environment for the students in the school. Pay special attention to cleaning and sanitation. He said that the state government has issued a special grant for the cleanliness of schools, using which the schools will ensure the cleanliness of the bathrooms. On this occasion, Education Secretary Mr. Kamal Kishore Yadav, DPI. School Shri Sanjiv Kumar and District Education Officer Mohali Ginni Duggal were present.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/punjab/harjot-singh-bains-said-the-appearance-of-schools-is-changing-with-the-appointment-of-campus-managers-ak-467395.html</t>
+  </si>
+  <si>
+    <t>A government bus stand worth Rs 10 lakh disappeared within a week, know the case</t>
+  </si>
+  <si>
+    <t>Bengaluru Bus stand stolen: A strange case has come to light in Bengaluru. The government bus stand built here at a cost of around 10 lakhs has disappeared. This feat was accomplished within a week of the stand being constructed. The case is that of Bengaluru's Cunningham Road, where a Rs 10 lakh bus stand disappeared within a week of its installation. The thing to note is that the disappearance of the bus stand has not been reported to the Bengaluru Metropolitan Transport Corporation itself. Those who carry mobile phones inside the toilet beware!, read the expert's warning...Viral Video: All of the world Man eats whole bucket full of hot chillies from Govt bus stop with Rs 10 lakh disappeared in week, police on the hunt OMG trying to prove himself alive in government papers for last 19 years According to CNN News 18 in Bengaluru A Rs 10 lakh bus stop was built on Cunningham Road behind the Bangalore Commissioner's office. It mysteriously disappeared a week after its construction. This bus stop was built on August 21 and disappeared on August 28 and the incident was reported a month later. BMTC Bus Shelter The company responsible for the construction has filed a complaint at the High Ground Police Station. Currently, the police are scanning the CCTV footage of the nearby buildings to identify those responsible.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/national/bengaluru-viral-news-bus-stand-worth-10-lakh-goes-missing-in-week-installed-at-cunningham-road-tc-467335.html</t>
+  </si>
+  <si>
+    <t>Betting app: Now ED sent summons to Kapil Sharma and Huma Qureshi</t>
+  </si>
+  <si>
+    <t>Mahadev Betting App Case: After Bollywood actor Ranbir Kapoor in the Mahadev Betting App Case, three more names have come under the radar of ED. The Enforcement Directorate has issued summons to famous comedian Kapil Sharma, actress Huma Qureshi and Hina Khan. All have been asked to appear and record their statements. This entire case is related to Chhattisgarh's 'Mahadev' betting app. ED is investigating the money laundering case in this regard. In the current case, the ED has issued summons to actor Ranbir Kapoor and asked him to appear for questioning on Friday. did a ramp walk with daughter Anaira, Bharti's son Gole also revealed the secret of 'The Kapil Sharma Show', rapper Raftar! During the investigation, the alleged involvement of comedian Kapil Sharma, actress Huma Qureshi and Hina Khan in this matter has come to light. This is the reason why the Enforcement Directorate has asked the three to appear and present their side. It is not yet clear on which date the three have been asked to appear. Along with this, Ranbir Kapoor's legal team has asked the Enforcement Directorate. have responded to the summons issued against them by contacting News18 has learned that actor Ranbir Kapoor has approached the ED and sought two weeks' time to appear before the investigating agency. Ranbir Kapoor has been asked to appear on Friday after issuing a summon notice in the Mahadev money laundering case.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/entertainment/ed-summon-commedian-kapil-sharma-and-bollywood-actress-huma-qureshi-in-mahadev-betting-app-case-gw-467232.html</t>
+  </si>
+  <si>
+    <t>The Punjab government is going to do a great job for the youth</t>
+  </si>
+  <si>
+    <t>Punjab Local Government Minister Balkar Singh has said that the 'AAP' government led by Chief Minister Bhagwant Mann will provide minibus routes to the unemployed youth in the coming days. He said today that Chief Minister Bhagwant Mann is constantly striving to create maximum employment opportunities for the youth. Now soon the government will make a route to 7-8 villages and start the work of running minibuses. The matter of transfer of SSP of Tarn Taran, another letter written by the Governor to CM Mann. Big news: Punjab got new AG, Gurminder Singh. AG Vinod Ghai resigned in the name of Mohar Punjab, it may be that the new AGCM Bhagwant Mann called an emergency meeting, these issues may be discussed. He said that interest-free finance will also be provided to the youth. He said that the government is trying to create more government jobs for the youth as soon as possible and Chief Minister Bhagwant Mann is giving jobs to the unemployed youth on the basis of merit every week. Attend the government office on time and meet the people and redress their grievances. He said that he clears the files related to his department simultaneously and no file is kept pending. He said that our government believes in giving corruption free administration because Aam Aadmi Party came into existence after the financial war against corruption. He said that now the development work in cities is going to start fast as the rainy season is over. has taken He said that there has been a delay in the construction of roads in cities due to rain. Now roads will also be built and basic facilities will be provided to the people. The government has no dearth of funds for development work. He said that the Chief Minister himself has given instructions to the officials to complete the development works and ongoing projects in the cities as soon as possible.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/punjab/the-punjab-government-is-going-to-do-a-great-job-for-the-youth-absh-467271.html</t>
+  </si>
+  <si>
+    <t>The weather will worsen again, IMD has issued an alert in these areas till October 9</t>
+  </si>
+  <si>
+    <t>Weather Forecast Today: Heavy rain has started once again in many states of India. Meanwhile, the Meteorological Department has informed that the weather is going to be bad again in most parts of North-West India, due to which there may be rain in Jammu and Kashmir, Ladakh, Himachal Pradesh and Uttarakhand till October 9. Storm warning has also been given. According to the Meteorological Department, a fresh western disturbance will hit northwest India on the night of October 8. Due to this, the weather will change in the Himalayan states and there will be heavy rains. Its effect will also be seen on the weather of Delhi. There are signs of getting cold soon in Delhi. Effect of return of monsoon; Warning of heavy rain in these areas, warning of meteorologists! Rain may fall in these states including Punjab today. Weather Update: Rain alert issued in these 5 districts of Punjab. Heavy rain in Punjab, Haryana and Chandigarh. IMD issued alert till September 19. Heavy to very heavy rain is predicted in many parts of Unusually heavy rainfall (more than 12 cm) is likely over parts of sub-Himalayan West Bengal and Sikkim. This will also affect Punjab, Haryana and Chandigarh. 6 October i.e. very heavy rain is expected in some parts of Assam and Meghalaya today. Heavy rain is likely in different parts of sub-Himalayan West Bengal, Sikkim and Arunachal Pradesh today. Along with this, some parts of Andaman and Nicobar Islands may experience heavy rainfall till October 8. According to a Skymet Weather report, light to moderate rain is likely over Northeast India, West Bengal, North Odisha, Jharkhand, Bihar, Goa and parts of Lakshadweep. North Chhattisgarh, Jammu and Kashmir, Gilgit-Baltistan, Muzaffarabad, Light rain is likely over Ladakh, South Central Maharashtra, South Interior Karnataka, Tamil Nadu and Kerala. During the next 24 to 48 hours Jammu and Kashmir, Ladakh, Gilgit-Baltistan, Muzaffarabad, Himachal Pradesh, Uttarakhand, West Uttar Pradesh, West Conditions are becoming favorable for withdrawal of Southwest Monsoon from parts of Madhya Pradesh, Gujarat state, East Uttar Pradesh.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/national/weather-update-imd-predicts-heavy-rainfall-delhi-forecast-today-sikkim-west-bengal-andaman-nicobar-assam-heavy-rain-gw-467231.html</t>
+  </si>
+  <si>
+    <t>Government bus stop worth 10 lakh rupees disappeared in a week, police started searching</t>
+  </si>
+  <si>
+    <t>A strange case has come to light in Bangalore. The government bus stop built here at a cost of around 10 lakh rupees has disappeared. This is the case of Bengaluru's Cunningham Road, where a bus stop worth Rs 10 lakh disappeared just a week after it was installed. The thing to note is that the disappearance of the bus stop has not been reported to the Bengaluru Metropolitan Transport Corporation itself. According to CNN News 18, the bus stop in Bengaluru worth Rs 10 lakh is owned by the Bengaluru Commissioner's office. The rear was built on Cunningham Road. It mysteriously disappeared a week after it was made. People carrying mobiles inside the toilet beware!, read experts' warning... Viral Video: Eat a bucket full of the world's hottest chillies Govt bus stand worth 10 lakh rupees disappeared within a week, know the case OMG trying to prove yourself alive in government papers for the last 19 years. This bus stop was built on 21st August and disappeared on 28th August. And this incident was reported after a month. The company responsible for the construction of the BMTC bus shelter has filed a complaint at the High Ground Police Station. Currently, the police are examining the CCTV footage of the nearby buildings to identify those responsible.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/national/a-government-bus-stand-worth-rs-10-lakh-disappeared-within-a-week-no-one-could-hear-about-it-now-the-police-is-still-searching-ak-467315.html</t>
+  </si>
+  <si>
+    <t>Muktsar Police Torture Case: Lawyer Refuses, Resigns With Police</t>
+  </si>
+  <si>
+    <t>There has been a new twist in the dispute between the police and lawyers at Sri Muktsar Sahib. In fact, lawyer Virinder Singh has entered into an agreement with the police. After which, in anger, the Bar Council of Shri Muktsar Sahib expelled Virinder Singh from the bar and the Bar Council Punjab-Haryana has also demanded to cancel the license. It may be mentioned that Advocate Virinder Singh made serious allegations against the police. After the allegations, the lawyer community took a stand in favor of Virinder Singh. In view of the controversy, SP Ramandeep Bhullar, CIA in-charge Raman Kamboj had registered a case against 6. Preventing visits to families and lawyers of detained Sikhs is unfortunate: Four-member SIT formed to investigate the Dhamivkil torture case, IPS Mandeep Singh Sidhushromani The case of students being arrested at the meeting of the International Sikh Advisory Board constituted by the committee: The investigating team sent by the Shiromani Committee, Advocate Virinder Singh, after reaching an agreement with the policemen, said that my grudge with all the officers/employees has been resolved. Along with this, he S.S.P. The transfer of Harmanbir Gill was also described as unfortunate. They demanded the Punjab government to restore the dignity of Harmanbir Gill. Advocate Varinder Singh thanked the entire lawyer community, Bar Association and Bar Council for supporting him.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/punjab/there-is-a-new-twist-in-the-dispute-between-police-and-lawyers-lawyer-virinder-singh-reached-an-agreement-with-the-police-skm-467198.html</t>
+  </si>
+  <si>
+    <t>Governor wrote another letter to CM Mann, seeking information in Khadur Sahib MLA Manjinder Singh Lalpura case.</t>
+  </si>
+  <si>
+    <t>Punjab Governor Banwari Lal Purohit has written another letter to Chief Minister Bhagwant Mann. In this letter, he has sought information in the case of Khadur Sahib MLA Manjinder Singh Lalpura. He gave this information to the SSP of Tarn Taran. Requested regarding the transfer of Punjab Governor Banwari Lal Purohit has written in the letter that he has come to know through media reports that the MLA's relative was involved in illegal mining. He said that the SSP has been changed only after the MLA's allegations. Since the MLA has accused the police of bribery, I should be given full information about the matter. Along with this, he also expressed concern about the illegal mining going on in Punjab. If the provincial government will take important steps against illegal mining and transparency, drone services will be taken to stop illegal mining activities: Meet Hereillegal Mining in Pathankot - Major police action on illegal mining Crusher policy 2023 to provide sand and gravel at low rates is a green flag that Goindwal police in the case of illegal mining of sand in constituency Khadur Sahib, Nishan Singh, a close relative of constituency MLA Manjinder Singh Lalpura. On the other hand, MLA Manjinder Singh Lalpura had also questioned the performance of the District Police Chief, describing this action of the police as false. Because of this, the police department has suspended four officers of the CIA staff. Now Punjab Governor Banwari Lal Purohit has written another letter to Chief Minister Bhagwant Mann. In this letter, he has sought information in the case of Khadur Sahib MLA Manjinder Singh Lalpura. He gave this information to the SSP of Tarn Taran. Requested regarding the transfer of</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/punjab/governor-banwari-lal-purohit-wrote-another-letter-to-cm-mann-seeking-information-in-khadur-sahib-mla-manjinder-singh-lalpura-case-skm-467184.html</t>
+  </si>
+  <si>
+    <t>Navratri Special 2023: Shops selling Ramlila goods are busy #local18</t>
+  </si>
+  <si>
+    <t>Aam Aadmi Party protested against the central government in Pathankot #local18 A strange case of theft has come to light in Pathankot, discussion is happening everywhere #local18 THE NRI STORY | There is no fare to travel in this E-Rickshaw in Pathankot #local18 Dam officials sold raw materials of the river in crores without asking Pathankot News | Why is it important to give nutritious food to children? Through this news, Pathankot Police arrested the accused who stole mobile phones. #local18 Khedan Watan Punjab Dia 2023 | District level games concluded in Pathankot #local18 Beekeeping business in Pathankot - Know how beekeeping business can be started #local18 World Heart Day - Know the reasons why a person has a heart attack #local18 Costumes made from waste material prepared by female students in Pathankot | #local18 Pathankot: Navratri will start across the country from October 15 and Ramlilas will also be staged. There was a time when Ramlila was held only in a few places in cities. But now people are seen staging Ram Leela in every street and neighborhood of the city. In these Ramlilas, children present the religious scripture Ramayana in a dramatic form. Children dress up as Ram, Lakshmana, Ravana, Hanuman and all the people described in the Ramayana to introduce people to this religious book Ramayana.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/pathankot/there-is-a-lot-of-excitement-at-the-shops-selling-ramlila-goods-pathankot-ramlila-ramayan-navratri-js-skm-local18-467029.html</t>
+  </si>
+  <si>
+    <t>A mortar that came washed away in floods exploded while firing, 2 dead, 4 injured</t>
+  </si>
+  <si>
+    <t>Two people were killed and four others injured when a mortar shell exploded in West Bengal's Jalpaiguri district after the Teesta river was flooded. The police gave this information. The police believe that this mortar shell belonged to the army and it came down from the hills after the cloudburst and flooding in Sikkim. What is the connection between Amritsar blast and energy drink near Sri Darbar Sahib? After the explosions, the Punjab Police on the alert, the explosion on the heritage street near Harmandir Sahib! Many pilgrims were injured. Explosive materials were found in this house, see what is the whole matter? He said that the people who died in the explosion have not been identified yet. "The four injured have been admitted to hospital and a thorough investigation has been started," a senior police official said. Local police sources speculated that the victims might have tried to touch a mortar shell. which came to this area by flowing with the flood water. Police said, "The condition of two of the injured is very serious and the death toll is likely to rise." Jalpaiguri MLA Pradeep Kumar Barma said, "This is a very unfortunate incident... these people threw the shells from the river." pulled out When he went to the house and tried to open it, it exploded. 6 people were injured in this incident, 2 of them died and the remaining 4 injured are undergoing treatment at the Government Medical College of Jalpaiguri.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/national/mortar-shell-reached-bengal-after-flowing-from-sikkim-people-took-it-out-from-the-river-2-died-in-explosion-after-opening-gw-467409.html</t>
+  </si>
+  <si>
+    <t>Jailed Iranian activist Nargis Mohammadi receives Nobel Peace Prize for her fight against oppression of women</t>
+  </si>
+  <si>
+    <t>Iranian female journalist and activist Nargis Mohammadi has been awarded the Nobel Peace Prize. The Nobel Committee has acknowledged that she has raised her voice for women's freedom and rights. He was also arrested 13 times. The committee announced the peace prize with the slogan of the women of Iran: Jan-Zindagi-Azadi. 51-year-old Nargis is still imprisoned in Iran's Awan prison. He has been sentenced to 31 years in prison and 154 lashes. Iran has arrested him on charges of propagating against the government. After receiving the Nobel, Nargis will be awarded a prize of 8.33 crore rupees and a gold medal. Who is Nargis Mohammadi, who won the Nobel Peace Prize? Nargis was born on 21 April 1972 in Zanjan, Kurdistan, Iran. He studied physics. After completing his studies, he worked as an engineer. He was also a columnist. Used to write for many newspapers. Nargis had been raising her voice for women's rights since the 1990s. In 2003, Nargis began working at the Human Rights Defense Center in Tehran. According to the Nobel Prize website, Nargis Mohammadi was first jailed in 2011 for trying to help jailed activists and their families. Got bail after 2 years. She was sent to jail again in 2015. Nargis has not seen her children for 8 years In an interview with the New York Times in June, Nargis said that she has not seen her children for 8 years. Nargis last heard the voices of her twin daughters Ali and Keena a year ago. Nargis' two daughters live in France with her husband Taghi Rahmani. In fact, Taghi is also a political activist. Who was sentenced to 14 years in prison by the Iranian government. Nargis has also written a book called White Torture. Despite all the efforts of the Iranian regime, Mohammadi's voice could not be suppressed. While in prison, he began recording the plight of his fellow inmates. Eventually, he recorded the full details of his interactions with the prisoners in the book White Torture. He was also awarded the Reporters Without Borders (RSF) Courage Award in 2022.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/international/jailed-iranian-activist-narges-mohammadi-wins-nobel-peace-prize-absh-467434.html</t>
+  </si>
+  <si>
+    <t>100 female students suddenly caught by a mysterious disease, health teams engaged in investigation, school closed</t>
+  </si>
+  <si>
+    <t>Kenya has been gripped by a mysterious disease. There has been a stir here due to the complaint of paralysis in the legs of school girls. According to local media, about 100 schoolgirls in Kenya have reported symptoms of paralysis in their legs. Due to paralysis, most of the girls are no longer able to walk. According to local media reports, the incident took place at St. Theresa Eregi Girls High School in Kakamega city and the paralyzed schoolgirls have been admitted to hospital. The school has been closed indefinitely. According to African media reports, the County Education Officer Boneface Okoth told the media on Wednesday that 95 victimized female students have been admitted to hospitals for treatment. According to a BBC report, schoolgirls were having difficulty walking due to paralysis in their legs. However, what this disease actually is has not been revealed. Experts believe it could be mass hysteria, the report said. Blood and urine samples of the victim girls were collected by health officials and sent to the Kenya Medical Research Institute (KEMRI) laboratories, the report said. have gone, where the mysterious disease is being investigated. At the same time, the Kenyan authorities have appealed to the parents and guardians of the affected girls to keep a close eye on the health of their children. A video of school children unable to walk due to a mysterious illness is going viral on social media. A user on social media platform X posted, 'Several school girls in Kenya were admitted to hospital due to a mysterious illness. Reports say that most of the female students have paralyzed legs and cannot walk.'</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/international/mystery-illness-in-kenya-leaves-school-children-with-paralysed-legs-nearly-100-girls-hospitalised-gw-467329.html</t>
   </si>
 </sst>
 </file>

--- a/server/News18_Punjab.xlsx
+++ b/server/News18_Punjab.xlsx
@@ -28,187 +28,187 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Asian Games 2023: India won gold by defeating Japan in the hockey final</t>
-  </si>
-  <si>
-    <t>New Delhi- The Indian men's hockey team has won the gold medal in the Asian Games. India defeated Japan in the final. Along with this, the Indian team has also qualified for the Paris Olympics. India has won a record 16th medal in men's hockey. Out of these 16 medals, 4 are gold medals. South Korea defeated hosts China to win the bronze medal. Pakistan, once a great hockey team, did not get a medal. In the 19th Asian Games held in China, India performed brilliantly from the first match. How much Team India dominated the tournament can be estimated from the score card. Sarbjot-Divya won the silver medal for India in shooting. Know the truth of the viral video? Ludhiana District Magistrate issued various ban orders. The conversation between PM Modi and Xi Jinping met each other in this style. India defeated Uzbekistan by a huge margin of 16-0 in the first match of the Asian Games. . After this, Singapore was defeated by 16-1 and Bangladesh by 12-0. India defeated Japan 4-2 and Pakistan 10-10-2 in the group round itself. Then they beat Japan 5-1 in the final. This is the fourth gold medal for the Indian men's hockey team in the Asian Games. India had earlier achieved golden success in the 2014 Asian Games.</t>
+    <t>Parliament Session: 'India has made a place as a world friend, some people still doubt the country' - PM Modi said in Lok Sabha</t>
+  </si>
+  <si>
+    <t>New Delhi- Addressing the Parliament Special Session, Prime Minister Narendra Modi said in the Lok Sabha that today is an opportunity to move forward by remembering the inspiring moments. We are all saying goodbye to this historic house. We may move to a new building but the old building will always inspire future generations. Through this House, I once again congratulate the scientists and their colleagues of the country. PM Modi said that I thank you for the success of G-20. This is the success of India, not the success of any person or any party. Prime Minister Narendra Modi said that various governments of the country have worked to increase the pride and dignity of the country. I cannot forget the emotional moment when the African Union got membership of the G-20. PM Modi also said that many people have a tendency to be skeptical about India. It is a matter of pride for all of us that today India has succeeded in making its place as a world friend. The whole world is looking for its friend in India. PM Modi said that saying goodbye to this House is a very emotional moment. If the family leaves the old house and moves to the new house, many memories shake it for a few moments. As we are leaving this house, our mind and brain are also filled with those feelings and filled with many memories. Celebrations, excitement, bitter-sweet moments, quarrels are connected with these memories. Modi government approved 1650 crore rupees under Ujwala Yojana, India is a 'nation' that considers the world as a family, PM Modi said on Moneycontrol, 'One country, one election'. The committee formed on, EX President Kovind as the head of the committee Lok Sabha elections may be held in December, BJP has booked all the helicopters: Mamata Prime Minister Narendra Modi said that before independence this house used to be the seat of the Imperial Legislative Council. After independence it was recognized as Parliament House. It is true that the decision to build this building was of foreign rulers. But we can never forget it and can proudly say that in the construction of this building, the sweat of my countrymen, the labor of my countrymen and the money also belonged to the people of my country. Prime Minister Narendra Modi said that when there was a terrorist attack on Parliament House, it was not a terrorist attack on a building, but in a way it was an attack on the mother of democracy, our living soul. The country can never forget that incident. I also salute those people who fought the terrorists</t>
   </si>
   <si>
     <t>news</t>
   </si>
   <si>
-    <t>https://punjab.news18.com/news/sports/asian-games-2023-india-won-hockey-gold-path-cleared-for-paris-olympics-ak-467478.html</t>
-  </si>
-  <si>
-    <t>'No one's interference will be tolerated', CBFC in action mode after actor Vishal's allegations</t>
-  </si>
-  <si>
-    <t>A few days ago, Dakshya Vishal made sensational allegations against the Censor Board. Actor-producer Vishal had alleged that the Censor Board demanded a bribe to clear his film 'Mark Antony'. His allegations created a stir in the industry and the media. After this, the head of the Central Board of Film Certification i.e. CBFC and the Ministry of Information and Broadcasting of the Government of India took notice and said that action would be taken against the accused. A big update on the same issue has now come out. 'Mark Antony' fame actor Vishal has released a video exposing the rigging happening in the Censor Board. He said that he had to spend Rs 6.5 lakh to get the Hindi version of his film 'Mark' Antony approved and it was not digestible. The board then said in a statement today, "We have thoroughly reflected and analyzed the recent incident. The incident has been taken immediate notice and is being seriously investigated." We will get to the root of it and strict action will be taken against the accused accordingly," CBFC said in a statement today. What Punjabi actor Gugu GillGadar said against drugs 2 BO Day 8: Tara Singh beats Pathan, Dangal behind 'No film should be made on Sushant's life...' Father appeals in Delhi HC The allegations surfaced on social media when his film was released in Hindi. His post also gave all the details of the transaction for the film certificate. Central Board of Film Certification Chairman Prasoon Joshi has called a meeting in this regard. Following this, CBFC has issued a special advisory for filmmakers and producers. The CBFC Chairman said that interference of any agent or third party in the name of certifying the films will not be tolerated. Along with this, in this statement, the CBFC has also said that 'to certify or pass the films The entire process is online, but now more strictness will be done in this regard. CBFC certifies around 12,000-18,000 films every year. This work requires a lot of hard work. In such cases, producers are requested to avoid any haste and follow the online process only.” It also said. Joshi had earlier demanded a CBI probe into Vishal's allegations. The film 'Mark Antony' was released on September 15 while its Hindi version was released on September 28</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/entertainment/no-one-interference-will-be-tolerated-cbfc-in-action-mode-after-actor-vishal-allegations-skm-466796.html</t>
-  </si>
-  <si>
-    <t>This DM is a super woman who passed UPSC while managing children, job and home, know why in the discussion</t>
-  </si>
-  <si>
-    <t>DM Monika Rani of Uttar Pradesh's Bahraich district is currently in the headlines. DM Monika Rani has done such a job which is being appreciated everywhere. In fact, he gave a grand farewell to Inder Bahadur, who was posted as a cook in the DM's residence for the last 32 years. She attended his farewell function with the family. Let's know about DM Monica Rani. Bahraich DM Monica Rani became an IAS officer by securing 70th rank in UPSC 2010 All India. He was 29 years old at that time. His mother was a school teacher. Along with this, she was also fulfilling her domestic responsibilities. Both sons of Nand Lal, who ran a small grocery shop, became judges. Collector Salary: How much does a District Collector get in India? What do the students who pass UPSC learn in the training of the transfer of officers, know that she wanted to become an IAS from childhood According to the news, Monica Rani wanted to become an IAS from childhood. He was greatly inspired by his brother. Whom he had seen reading for hours. But something happened that they got married in the year 2005. She also became a mother of one child and got a job as a teacher in a government school in Bijwasan, Delhi. UPSC with full-time maid and baby When Monica Rani's baby was eight months old, she started preparing for UPSC. She used to get up early, finish the housework and study for some time. After that, after coming back from school, she would take care of the children and do housework. Then she would study for a few hours at night. Her husband was posted in Kolkata. Monica juggled time between household responsibilities, full time teaching job and taking care of children and finally in the year 2010, she not only cleared UPSC but also got 70th rank.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/career/this-dm-is-a-super-woman-who-passed-upsc-while-managing-children-job-and-home-know-why-in-the-discussion-skm-466571.html</t>
-  </si>
-  <si>
-    <t>Sarkari Job 2023: Golden opportunity of government job for women, salary up to one lakh rupees</t>
-  </si>
-  <si>
-    <t>Sarkari Job 2023, JSSC JLSCE Recruitment 2023: It is a great opportunity for women to get a government job in Jharkhand. Jharkhand Staff Selection Commission has announced Female Supervisor Competitive Exam 2023 offering salary above Rs.1 Lakh. The objective of this recruitment drive has decided to fill 444 vacancies for women supervisors in the state with special quota for various categories. Let's know the details of these vacancies: These 4 part-time jobs are beneficial for unemployed people aged 25 years SBI Only three days left to apply for PO recruitment, apply todayCareer Tips: Build a career by doing BBA after 12th, you will get many government jobs RBI Recruitment 2023: Reserve Bank of India Notification for 1000 Assistant Recruitment Today 187 Vacancies for SC 101 Vacancies for ST 35 Posts for Backward Classes 35 Posts for Backward Classes 42 Posts for Very Backward Classes 44 Posts for EWS Online applications are currently being accepted for this recruitment drive started from 26th September. The last date of the recruitment drive has been fixed on 25 October. The application fee can be paid by October 27, and interested candidates can apply on the official website panjikaran2023.com. For better information you can check the official notification. Eligibility: To apply, women candidates should have graduation degree in Sociology, Psychology, or Home Science. Further, the age of the candidates should be between 21 to 38 years, age relaxation is available for reserved category candidates.Salary: The successful candidate will draw a salary ranging from Rs.35,400 to Rs.1,12,400 under Pay Matrix Level 6. Selection Process: The selection process will consist of computer based examination with final merit list based on the candidates' exam scores. The exam will consist of multiple choice questions. Don't miss this unique opportunity to get a government job with attractive salary and apply today.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/career/sarkari-job-2023-golden-opportunity-of-government-job-for-women-salary-up-to-one-lakh-rupees-gh-skm-465982.html</t>
-  </si>
-  <si>
-    <t>SuperFood: Must include thyme in the diet, there will be 5 remarkable benefits</t>
-  </si>
-  <si>
-    <t>Thyme is not just a delicious herb that enhances the flavor of your dishes but also offers many health benefits making it a must-have nutrient in your diet. Whether fresh or dried, thyme contains compounds that can positively impact your health in many ways. Let's know about these... Blood pressure is controlled: Using thyme in cooking can not only improve the taste but also help in reducing high blood pressure, as high salt intake increases blood pressure. It is a common cause of increased pressure. How does the mobile phone harm children's health? Know from experts papaya leaves, giloy and goat's milk can be dangerous in dengue, RIMS not only condoms, men can also do contraception with these methods this medicinal plant is a 'boon', from facial wrinkles to joint pain Up to...Cold Relief: Thyme contains thymol, which is found in many cold remedies. Consuming thyme provides relief from cold symptoms, chest pain and cough. Infection Fighter: Thyme is rich in anti-inflammatory compounds, which makes it effective against bacterial and viral infections. It can also soothe skin problems such as burning and itching. Natural Insect Repellent: Thyme oil is a natural insect repellent. It can help ward off mosquitoes and provide relief from skin irritation and itching. Relieves Gas Thyme: Consuming thyme can relieve gas problems by not stimulating excess stomach acid production. It supports a healthy digestive system, helps digest food quickly and reduces the risk of gas or ulcers. Thyme is a nutritional powerhouse, offering potassium, vitamin A, vitamin C, and magnesium. A tablespoon of thyme contains minimal calories, carbohydrates and fat, making it a valuable addition to your daily diet for better health.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/health/superfood-must-include-thyme-in-the-diet-there-will-be-5-remarkable-benefits-gh-skm-466507.html</t>
-  </si>
-  <si>
-    <t>Daily consumption of this fruit can eliminate 'high cholesterol', know how</t>
-  </si>
-  <si>
-    <t>High cholesterol problem is becoming common nowadays. The problem of high cholesterol is on the rise, especially among young people who sit for long hours at desks and prefer junk food while neglecting physical activity. Too much cholesterol can clog our arteries, disrupt blood flow and lead to life-threatening conditions like heart attack and stroke. Therefore, controlling cholesterol levels is very important. Many people resort to drugs to control high cholesterol, but natural methods can be more beneficial. You can control cholesterol naturally by following a healthy diet, regular physical activity, and a healthy lifestyle. In addition, certain fruits can help reduce bad cholesterol in the body. One such fruit is the apple, which is known for its delicious taste as well as its rich nutritional content. These 5 Miracle Foods to Feed Kids Before Exams Will Increase Brain Emotions in Specific Areas of the Body Itching? So know its cause and remedy, can we get cancer due to lack of vitamin D? Know the real truth This simple-looking leafy vegetable is amazing, know how apples provide a powerful ally for those dealing with cholesterol problems. Many studies have shown that consuming apples has cholesterol-lowering benefits. Eating an apple or two a day can help control cholesterol levels. According to the Daily Mail, daily consumption of apples can lower bad cholesterol (LDL) levels. Apples are rich in bioactive polyphenols and fiber, which enter the bloodstream and lower bad cholesterol levels. They also promote lipid metabolism and cardiovascular health. In a 2012 American study, participants who ate one or two apples daily for four weeks saw a significant reduction in bad cholesterol levels. Over the course of the study, the middle-aged individuals' cholesterol levels dropped by an impressive 40%. So adding apples to your daily routine can be very beneficial.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/health/daily-consumption-of-this-fruit-can-eliminate-high-cholesterol-know-how-gh-skm-466758.html</t>
-  </si>
-  <si>
-    <t>Follow these vastu rules in the bedroom, peace and happiness will come in the house</t>
-  </si>
-  <si>
-    <t>Vastu Shastra is highly recognized in Hinduism. People follow the rules laid down in Vastu Shastra in many activities of their life. There is a belief that by following the rules of Vastu, one gets happiness, peace and prosperity in life. If a person violates the rules of Vastu, then it causes Vastu guilt. Accordingly, today we are going to tell you Vastu rules regarding the main rooms of the house i.e. bedrooms. If you also want to live your married life with love and financial progress, then follow these vastu rules - Direction of bedroom Talking about vastu shastra related to bedroom, the first question is its direction. It is recognized that the bedroom should always be in the south-west direction. Similarly, the bedroom should never be built in the north-east direction of the house. Color of the bedroom The color of the bedroom is also related to psychology. The color ideas of modern psychology and Vastu Shastra are quite similar. According to them, the color of the walls of the bedroom should be simple and sober, dark colors with more flashiness should never be used in the bedroom. Similarly, the color of the bedroom walls should not be black. This creates the problem of not sleeping. Vastu Shastra's recognition of installing mirrors in the bedroom instead of mirrors is that mirrors should not be installed. But there is one thing that should not be placed in front of the bed in the bedroom. By doing this, the problem of restlessness and insomnia arises. The place of the bed The place of the bed in the bedroom is of special importance. According to Vastu, it is always beneficial to keep the bed in the south-west corner. Doing this brings stability in life. Never put a bed under a beam or a girder, it causes difficulty in sleeping. According to furniture, there should be very little furniture in the bedroom apart from the bed. So do not keep any unnecessary furniture in the bedroom. There must be a certain place in the bedroom to keep everything, so that the bedroom remains clean and tidy. Selection of pictures Pictures fill the emptiness of the walls and add to the beauty of our home. But choosing the right pictures is very important. Never put up pictures of fighting, fighting and negative symbols in the bedroom. Pictures related to memorable moments of your life, scenes of nature etc. are good to place in the bedroom.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/lifestyle/follow-these-vastu-rules-in-the-bedroom-peace-and-happiness-will-come-in-the-house-gh-skm-466637.html</t>
-  </si>
-  <si>
-    <t>OMG this woman trying to prove herself alive in government papers for the last 19 years, is not getting any essence.</t>
-  </si>
-  <si>
-    <t>You may remember Pankaj Tripathi's Bollywood film Kaazh which came out in the year 2021. Actor Pankaj Tripathi, who plays the role of Bharat Lal in it, moves from court to different offices for years to prove himself alive on paper. A similar story has emerged from Sagar district, where a 59-year-old woman has been appealing to panchayats, SDMs, collectors, commissioners and MLAs for the past 19 years to prove herself alive on paper, but no one has responded. did not give .The problem is not being solved. Due to this certificate, the woman is neither getting the benefit of compassionate appointment, nor PF, nor any government scheme. He is forced to live on the help of other people for the past several years. In fact, the difference between this story on reel and real life is that Bharat Lal finally declares himself alive on paper after a long struggle. The struggle of this old lady of Sagar with growing wrinkles on her face is getting longer but the status quo is still there. Matra Navami day is special in Pitru Paksha, know its importance and method of donating Tarpan Pitru Paksha 2023: This year Shradh will last not 15 but 16 days, know what is the reason, find out with these easy methods whether there is pitra dosha in the horoscope or not, the beautiful building being prepared in the style of Taj Mahal in Madhya Pradesh is 40 years ago, the certificate of a 59-year-old woman, Sagar Sadar Mulayam Singh, the husband of 59-year-old woman Suman Singh Thakur, was working as a fighter in a coal mine in Anupur district. He died of the disease in 2003. Now the family had to face the challenge of making a living. Son Rahul was very young, due to which the mother herself applied for Rahm's appointment. Here, a paper was found under the woman's feet stating who had given the land, according to which she had died 40 years ago in 1983. This was announced by the Makrauniya Gram Panchayat. Such death certificate was issued in the year 2004. Since then, the woman has been visiting government offices to get her death certificate cancelled. Due to this letter, not only the woman did not get the appointment on the basis of compassion, she could not avail any government scheme either. The mother and son are spending their days in someone else's house. The son is forced to work for other people. The mother and son fought in the court and won but the papers are still intact. The officials are unaware of the matter... In this matter, on the one hand, the officials of the district and municipal corporation seem to avoid saying anything. now</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/ajab-gajab/omg-this-woman-trying-to-prove-herself-alive-in-government-papers-for-the-last-19-years-is-not-getting-any-essence-skm-467331.html</t>
-  </si>
-  <si>
-    <t>The appearance of schools is changing with the appointment of campus managers: Harjot Singh Bains</t>
-  </si>
-  <si>
-    <t>Chandigarh: Punjab School Education Minister Harjot Singh Bains said that with the appointment of campus managers, the look of government schools in Punjab has started to change. He was presiding over a one-day training of campus managers here today. During his presidential speech, Mr. Bains said that the Punjab government led by Chief Minister Bhagwant Singh Maan has launched an education revolution to improve the functioning of government schools in Punjab. Under this, the campus managers have been appointed. Changed timings of schools in Punjab, know the new Timing. Under RTE, major action has been ordered against schools that do not give free admission. Tomorrow, all government offices and educational institutions will be closed in this district of Punjab. A big announcement for the students... He said that with the appointment of the campus manager, the pressure of the school maintenance work on the school principal has remained negligible, due to which the principal is now in the direction of improving the educational environment in the school. are working He said that good results have started coming from the appointment of campus managers. Bains said that in the last one and a half years, he has visited many schools in the state of Punjab and now when a person mentions the name of a school, all the problems related to that school come to mind. He appealed to the campus managers to work as an arm of the school principal and give the best appearance to the schools. The school education minister appealed to the campus managers to fulfill the new responsibility with service spirit and said that they should create a safe environment for the students in the school. Pay special attention to cleaning and sanitation. He said that the state government has issued a special grant for the cleanliness of schools, using which the schools will ensure the cleanliness of the bathrooms. On this occasion, Education Secretary Mr. Kamal Kishore Yadav, DPI. School Shri Sanjiv Kumar and District Education Officer Mohali Ginni Duggal were present.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/punjab/harjot-singh-bains-said-the-appearance-of-schools-is-changing-with-the-appointment-of-campus-managers-ak-467395.html</t>
-  </si>
-  <si>
-    <t>A government bus stand worth Rs 10 lakh disappeared within a week, know the case</t>
-  </si>
-  <si>
-    <t>Bengaluru Bus stand stolen: A strange case has come to light in Bengaluru. The government bus stand built here at a cost of around 10 lakhs has disappeared. This feat was accomplished within a week of the stand being constructed. The case is that of Bengaluru's Cunningham Road, where a Rs 10 lakh bus stand disappeared within a week of its installation. The thing to note is that the disappearance of the bus stand has not been reported to the Bengaluru Metropolitan Transport Corporation itself. Those who carry mobile phones inside the toilet beware!, read the expert's warning...Viral Video: All of the world Man eats whole bucket full of hot chillies from Govt bus stop with Rs 10 lakh disappeared in week, police on the hunt OMG trying to prove himself alive in government papers for last 19 years According to CNN News 18 in Bengaluru A Rs 10 lakh bus stop was built on Cunningham Road behind the Bangalore Commissioner's office. It mysteriously disappeared a week after its construction. This bus stop was built on August 21 and disappeared on August 28 and the incident was reported a month later. BMTC Bus Shelter The company responsible for the construction has filed a complaint at the High Ground Police Station. Currently, the police are scanning the CCTV footage of the nearby buildings to identify those responsible.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/national/bengaluru-viral-news-bus-stand-worth-10-lakh-goes-missing-in-week-installed-at-cunningham-road-tc-467335.html</t>
-  </si>
-  <si>
-    <t>Betting app: Now ED sent summons to Kapil Sharma and Huma Qureshi</t>
-  </si>
-  <si>
-    <t>Mahadev Betting App Case: After Bollywood actor Ranbir Kapoor in the Mahadev Betting App Case, three more names have come under the radar of ED. The Enforcement Directorate has issued summons to famous comedian Kapil Sharma, actress Huma Qureshi and Hina Khan. All have been asked to appear and record their statements. This entire case is related to Chhattisgarh's 'Mahadev' betting app. ED is investigating the money laundering case in this regard. In the current case, the ED has issued summons to actor Ranbir Kapoor and asked him to appear for questioning on Friday. did a ramp walk with daughter Anaira, Bharti's son Gole also revealed the secret of 'The Kapil Sharma Show', rapper Raftar! During the investigation, the alleged involvement of comedian Kapil Sharma, actress Huma Qureshi and Hina Khan in this matter has come to light. This is the reason why the Enforcement Directorate has asked the three to appear and present their side. It is not yet clear on which date the three have been asked to appear. Along with this, Ranbir Kapoor's legal team has asked the Enforcement Directorate. have responded to the summons issued against them by contacting News18 has learned that actor Ranbir Kapoor has approached the ED and sought two weeks' time to appear before the investigating agency. Ranbir Kapoor has been asked to appear on Friday after issuing a summon notice in the Mahadev money laundering case.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/entertainment/ed-summon-commedian-kapil-sharma-and-bollywood-actress-huma-qureshi-in-mahadev-betting-app-case-gw-467232.html</t>
-  </si>
-  <si>
-    <t>The Punjab government is going to do a great job for the youth</t>
-  </si>
-  <si>
-    <t>Punjab Local Government Minister Balkar Singh has said that the 'AAP' government led by Chief Minister Bhagwant Mann will provide minibus routes to the unemployed youth in the coming days. He said today that Chief Minister Bhagwant Mann is constantly striving to create maximum employment opportunities for the youth. Now soon the government will make a route to 7-8 villages and start the work of running minibuses. The matter of transfer of SSP of Tarn Taran, another letter written by the Governor to CM Mann. Big news: Punjab got new AG, Gurminder Singh. AG Vinod Ghai resigned in the name of Mohar Punjab, it may be that the new AGCM Bhagwant Mann called an emergency meeting, these issues may be discussed. He said that interest-free finance will also be provided to the youth. He said that the government is trying to create more government jobs for the youth as soon as possible and Chief Minister Bhagwant Mann is giving jobs to the unemployed youth on the basis of merit every week. Attend the government office on time and meet the people and redress their grievances. He said that he clears the files related to his department simultaneously and no file is kept pending. He said that our government believes in giving corruption free administration because Aam Aadmi Party came into existence after the financial war against corruption. He said that now the development work in cities is going to start fast as the rainy season is over. has taken He said that there has been a delay in the construction of roads in cities due to rain. Now roads will also be built and basic facilities will be provided to the people. The government has no dearth of funds for development work. He said that the Chief Minister himself has given instructions to the officials to complete the development works and ongoing projects in the cities as soon as possible.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/punjab/the-punjab-government-is-going-to-do-a-great-job-for-the-youth-absh-467271.html</t>
-  </si>
-  <si>
-    <t>The weather will worsen again, IMD has issued an alert in these areas till October 9</t>
-  </si>
-  <si>
-    <t>Weather Forecast Today: Heavy rain has started once again in many states of India. Meanwhile, the Meteorological Department has informed that the weather is going to be bad again in most parts of North-West India, due to which there may be rain in Jammu and Kashmir, Ladakh, Himachal Pradesh and Uttarakhand till October 9. Storm warning has also been given. According to the Meteorological Department, a fresh western disturbance will hit northwest India on the night of October 8. Due to this, the weather will change in the Himalayan states and there will be heavy rains. Its effect will also be seen on the weather of Delhi. There are signs of getting cold soon in Delhi. Effect of return of monsoon; Warning of heavy rain in these areas, warning of meteorologists! Rain may fall in these states including Punjab today. Weather Update: Rain alert issued in these 5 districts of Punjab. Heavy rain in Punjab, Haryana and Chandigarh. IMD issued alert till September 19. Heavy to very heavy rain is predicted in many parts of Unusually heavy rainfall (more than 12 cm) is likely over parts of sub-Himalayan West Bengal and Sikkim. This will also affect Punjab, Haryana and Chandigarh. 6 October i.e. very heavy rain is expected in some parts of Assam and Meghalaya today. Heavy rain is likely in different parts of sub-Himalayan West Bengal, Sikkim and Arunachal Pradesh today. Along with this, some parts of Andaman and Nicobar Islands may experience heavy rainfall till October 8. According to a Skymet Weather report, light to moderate rain is likely over Northeast India, West Bengal, North Odisha, Jharkhand, Bihar, Goa and parts of Lakshadweep. North Chhattisgarh, Jammu and Kashmir, Gilgit-Baltistan, Muzaffarabad, Light rain is likely over Ladakh, South Central Maharashtra, South Interior Karnataka, Tamil Nadu and Kerala. During the next 24 to 48 hours Jammu and Kashmir, Ladakh, Gilgit-Baltistan, Muzaffarabad, Himachal Pradesh, Uttarakhand, West Uttar Pradesh, West Conditions are becoming favorable for withdrawal of Southwest Monsoon from parts of Madhya Pradesh, Gujarat state, East Uttar Pradesh.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/national/weather-update-imd-predicts-heavy-rainfall-delhi-forecast-today-sikkim-west-bengal-andaman-nicobar-assam-heavy-rain-gw-467231.html</t>
-  </si>
-  <si>
-    <t>Government bus stop worth 10 lakh rupees disappeared in a week, police started searching</t>
-  </si>
-  <si>
-    <t>A strange case has come to light in Bangalore. The government bus stop built here at a cost of around 10 lakh rupees has disappeared. This is the case of Bengaluru's Cunningham Road, where a bus stop worth Rs 10 lakh disappeared just a week after it was installed. The thing to note is that the disappearance of the bus stop has not been reported to the Bengaluru Metropolitan Transport Corporation itself. According to CNN News 18, the bus stop in Bengaluru worth Rs 10 lakh is owned by the Bengaluru Commissioner's office. The rear was built on Cunningham Road. It mysteriously disappeared a week after it was made. People carrying mobiles inside the toilet beware!, read experts' warning... Viral Video: Eat a bucket full of the world's hottest chillies Govt bus stand worth 10 lakh rupees disappeared within a week, know the case OMG trying to prove yourself alive in government papers for the last 19 years. This bus stop was built on 21st August and disappeared on 28th August. And this incident was reported after a month. The company responsible for the construction of the BMTC bus shelter has filed a complaint at the High Ground Police Station. Currently, the police are examining the CCTV footage of the nearby buildings to identify those responsible.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/national/a-government-bus-stand-worth-rs-10-lakh-disappeared-within-a-week-no-one-could-hear-about-it-now-the-police-is-still-searching-ak-467315.html</t>
-  </si>
-  <si>
-    <t>Muktsar Police Torture Case: Lawyer Refuses, Resigns With Police</t>
-  </si>
-  <si>
-    <t>There has been a new twist in the dispute between the police and lawyers at Sri Muktsar Sahib. In fact, lawyer Virinder Singh has entered into an agreement with the police. After which, in anger, the Bar Council of Shri Muktsar Sahib expelled Virinder Singh from the bar and the Bar Council Punjab-Haryana has also demanded to cancel the license. It may be mentioned that Advocate Virinder Singh made serious allegations against the police. After the allegations, the lawyer community took a stand in favor of Virinder Singh. In view of the controversy, SP Ramandeep Bhullar, CIA in-charge Raman Kamboj had registered a case against 6. Preventing visits to families and lawyers of detained Sikhs is unfortunate: Four-member SIT formed to investigate the Dhamivkil torture case, IPS Mandeep Singh Sidhushromani The case of students being arrested at the meeting of the International Sikh Advisory Board constituted by the committee: The investigating team sent by the Shiromani Committee, Advocate Virinder Singh, after reaching an agreement with the policemen, said that my grudge with all the officers/employees has been resolved. Along with this, he S.S.P. The transfer of Harmanbir Gill was also described as unfortunate. They demanded the Punjab government to restore the dignity of Harmanbir Gill. Advocate Varinder Singh thanked the entire lawyer community, Bar Association and Bar Council for supporting him.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/punjab/there-is-a-new-twist-in-the-dispute-between-police-and-lawyers-lawyer-virinder-singh-reached-an-agreement-with-the-police-skm-467198.html</t>
-  </si>
-  <si>
-    <t>Governor wrote another letter to CM Mann, seeking information in Khadur Sahib MLA Manjinder Singh Lalpura case.</t>
-  </si>
-  <si>
-    <t>Punjab Governor Banwari Lal Purohit has written another letter to Chief Minister Bhagwant Mann. In this letter, he has sought information in the case of Khadur Sahib MLA Manjinder Singh Lalpura. He gave this information to the SSP of Tarn Taran. Requested regarding the transfer of Punjab Governor Banwari Lal Purohit has written in the letter that he has come to know through media reports that the MLA's relative was involved in illegal mining. He said that the SSP has been changed only after the MLA's allegations. Since the MLA has accused the police of bribery, I should be given full information about the matter. Along with this, he also expressed concern about the illegal mining going on in Punjab. If the provincial government will take important steps against illegal mining and transparency, drone services will be taken to stop illegal mining activities: Meet Hereillegal Mining in Pathankot - Major police action on illegal mining Crusher policy 2023 to provide sand and gravel at low rates is a green flag that Goindwal police in the case of illegal mining of sand in constituency Khadur Sahib, Nishan Singh, a close relative of constituency MLA Manjinder Singh Lalpura. On the other hand, MLA Manjinder Singh Lalpura had also questioned the performance of the District Police Chief, describing this action of the police as false. Because of this, the police department has suspended four officers of the CIA staff. Now Punjab Governor Banwari Lal Purohit has written another letter to Chief Minister Bhagwant Mann. In this letter, he has sought information in the case of Khadur Sahib MLA Manjinder Singh Lalpura. He gave this information to the SSP of Tarn Taran. Requested regarding the transfer of</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/punjab/governor-banwari-lal-purohit-wrote-another-letter-to-cm-mann-seeking-information-in-khadur-sahib-mla-manjinder-singh-lalpura-case-skm-467184.html</t>
-  </si>
-  <si>
-    <t>Navratri Special 2023: Shops selling Ramlila goods are busy #local18</t>
-  </si>
-  <si>
-    <t>Aam Aadmi Party protested against the central government in Pathankot #local18 A strange case of theft has come to light in Pathankot, discussion is happening everywhere #local18 THE NRI STORY | There is no fare to travel in this E-Rickshaw in Pathankot #local18 Dam officials sold raw materials of the river in crores without asking Pathankot News | Why is it important to give nutritious food to children? Through this news, Pathankot Police arrested the accused who stole mobile phones. #local18 Khedan Watan Punjab Dia 2023 | District level games concluded in Pathankot #local18 Beekeeping business in Pathankot - Know how beekeeping business can be started #local18 World Heart Day - Know the reasons why a person has a heart attack #local18 Costumes made from waste material prepared by female students in Pathankot | #local18 Pathankot: Navratri will start across the country from October 15 and Ramlilas will also be staged. There was a time when Ramlila was held only in a few places in cities. But now people are seen staging Ram Leela in every street and neighborhood of the city. In these Ramlilas, children present the religious scripture Ramayana in a dramatic form. Children dress up as Ram, Lakshmana, Ravana, Hanuman and all the people described in the Ramayana to introduce people to this religious book Ramayana.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/pathankot/there-is-a-lot-of-excitement-at-the-shops-selling-ramlila-goods-pathankot-ramlila-ramayan-navratri-js-skm-local18-467029.html</t>
-  </si>
-  <si>
-    <t>A mortar that came washed away in floods exploded while firing, 2 dead, 4 injured</t>
-  </si>
-  <si>
-    <t>Two people were killed and four others injured when a mortar shell exploded in West Bengal's Jalpaiguri district after the Teesta river was flooded. The police gave this information. The police believe that this mortar shell belonged to the army and it came down from the hills after the cloudburst and flooding in Sikkim. What is the connection between Amritsar blast and energy drink near Sri Darbar Sahib? After the explosions, the Punjab Police on the alert, the explosion on the heritage street near Harmandir Sahib! Many pilgrims were injured. Explosive materials were found in this house, see what is the whole matter? He said that the people who died in the explosion have not been identified yet. "The four injured have been admitted to hospital and a thorough investigation has been started," a senior police official said. Local police sources speculated that the victims might have tried to touch a mortar shell. which came to this area by flowing with the flood water. Police said, "The condition of two of the injured is very serious and the death toll is likely to rise." Jalpaiguri MLA Pradeep Kumar Barma said, "This is a very unfortunate incident... these people threw the shells from the river." pulled out When he went to the house and tried to open it, it exploded. 6 people were injured in this incident, 2 of them died and the remaining 4 injured are undergoing treatment at the Government Medical College of Jalpaiguri.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/national/mortar-shell-reached-bengal-after-flowing-from-sikkim-people-took-it-out-from-the-river-2-died-in-explosion-after-opening-gw-467409.html</t>
-  </si>
-  <si>
-    <t>Jailed Iranian activist Nargis Mohammadi receives Nobel Peace Prize for her fight against oppression of women</t>
-  </si>
-  <si>
-    <t>Iranian female journalist and activist Nargis Mohammadi has been awarded the Nobel Peace Prize. The Nobel Committee has acknowledged that she has raised her voice for women's freedom and rights. He was also arrested 13 times. The committee announced the peace prize with the slogan of the women of Iran: Jan-Zindagi-Azadi. 51-year-old Nargis is still imprisoned in Iran's Awan prison. He has been sentenced to 31 years in prison and 154 lashes. Iran has arrested him on charges of propagating against the government. After receiving the Nobel, Nargis will be awarded a prize of 8.33 crore rupees and a gold medal. Who is Nargis Mohammadi, who won the Nobel Peace Prize? Nargis was born on 21 April 1972 in Zanjan, Kurdistan, Iran. He studied physics. After completing his studies, he worked as an engineer. He was also a columnist. Used to write for many newspapers. Nargis had been raising her voice for women's rights since the 1990s. In 2003, Nargis began working at the Human Rights Defense Center in Tehran. According to the Nobel Prize website, Nargis Mohammadi was first jailed in 2011 for trying to help jailed activists and their families. Got bail after 2 years. She was sent to jail again in 2015. Nargis has not seen her children for 8 years In an interview with the New York Times in June, Nargis said that she has not seen her children for 8 years. Nargis last heard the voices of her twin daughters Ali and Keena a year ago. Nargis' two daughters live in France with her husband Taghi Rahmani. In fact, Taghi is also a political activist. Who was sentenced to 14 years in prison by the Iranian government. Nargis has also written a book called White Torture. Despite all the efforts of the Iranian regime, Mohammadi's voice could not be suppressed. While in prison, he began recording the plight of his fellow inmates. Eventually, he recorded the full details of his interactions with the prisoners in the book White Torture. He was also awarded the Reporters Without Borders (RSF) Courage Award in 2022.</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/international/jailed-iranian-activist-narges-mohammadi-wins-nobel-peace-prize-absh-467434.html</t>
-  </si>
-  <si>
-    <t>100 female students suddenly caught by a mysterious disease, health teams engaged in investigation, school closed</t>
-  </si>
-  <si>
-    <t>Kenya has been gripped by a mysterious disease. There has been a stir here due to the complaint of paralysis in the legs of school girls. According to local media, about 100 schoolgirls in Kenya have reported symptoms of paralysis in their legs. Due to paralysis, most of the girls are no longer able to walk. According to local media reports, the incident took place at St. Theresa Eregi Girls High School in Kakamega city and the paralyzed schoolgirls have been admitted to hospital. The school has been closed indefinitely. According to African media reports, the County Education Officer Boneface Okoth told the media on Wednesday that 95 victimized female students have been admitted to hospitals for treatment. According to a BBC report, schoolgirls were having difficulty walking due to paralysis in their legs. However, what this disease actually is has not been revealed. Experts believe it could be mass hysteria, the report said. Blood and urine samples of the victim girls were collected by health officials and sent to the Kenya Medical Research Institute (KEMRI) laboratories, the report said. have gone, where the mysterious disease is being investigated. At the same time, the Kenyan authorities have appealed to the parents and guardians of the affected girls to keep a close eye on the health of their children. A video of school children unable to walk due to a mysterious illness is going viral on social media. A user on social media platform X posted, 'Several school girls in Kenya were admitted to hospital due to a mysterious illness. Reports say that most of the female students have paralyzed legs and cannot walk.'</t>
-  </si>
-  <si>
-    <t>https://punjab.news18.com/news/international/mystery-illness-in-kenya-leaves-school-children-with-paralysed-legs-nearly-100-girls-hospitalised-gw-467329.html</t>
+    <t>https://punjab.news18.com/news/national/parliament-session-india-has-made-a-place-as-a-world-friend-some-people-still-doubt-the-country-pm-modi-said-in-lok-sabha-ak-462220.html</t>
+  </si>
+  <si>
+    <t>JE of PSPCL caught taking bribe of Rs 5,000 by Vigilance Bureau</t>
+  </si>
+  <si>
+    <t>Chandigarh: Punjab Vigilance Bureau on Friday arrested a Junior Engineer (JE) posted at the office of Punjab State Power Corporation Limited (PSPCL) at Sherpur, District Sangrur during the ongoing campaign against corruption in the state. Amarjit Singh has been caught red-handed while demanding a bribe of Rs. 5,000. Amarjit Singh has been arrested on the complaint of Ranjit Singh resident of Kheri, sub division Dhuri. He said that the complainant has approached the Vigilance Bureau and alleged that the employee is demanding a bribe of Rs 5,000 to replace the old transformer in his agricultural farm. Director Dharminder Singh Sandhu was arrested, the eight-year-old girl became SHO, see if the brother-in-law who killed the first judge was arrested, the spokesperson of the Grave Vigilance Bureau from Ambala station said that after the preliminary investigation of this complaint, the vigilance team of Patiala range laid a trap. P.S.P.C.L. The employee was caught on the spot taking a bribe of Rs 5,000 from the complainant in the presence of two government witnesses. In this regard, a case under the Prevention of Corruption Act has been registered against the accused employee at Vigilance Bureau Police Station Patiala Range. Further investigation of this matter is ongoing.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/punjab/je-of-pspcl-caught-taking-bribe-of-rs-5000-by-vigilance-bureau-skm-459640.html</t>
+  </si>
+  <si>
+    <t>Punjab government has released Rs 2.69 crore subsidy of soft seeds to more than 15 thousand farmers.</t>
+  </si>
+  <si>
+    <t>Chandigarh: According to the promise made by the Punjab government led by Chief Minister Bhagwant Singh Mann to give 33 percent subsidy on soft seeds, the Agriculture and Farmers Welfare Department has deposited a subsidy of Rs. 2.69 crore in the bank accounts of 15,541 farmers. In this regard Giving information, Minister of Agriculture and Farmers Welfare of Punjab. Gurmeet Singh Khudian said that a total of Rs 17.02 crore has been transferred to 87,173 farmers through the Direct Benefit Transfer (DBT) system so far as soft seed subsidy. This subsidy is being given on soft seeds certified by the Punjab Agricultural University (PAU). DEO Kejriwal's one-day visit to Faridkot, a record of three and a half years, turned out to be a flop show: on export of Bajwa Basmati. Sanctions imposed should be withdrawn immediately: CM Mann Amritsar News. During the rally of CM Arvind Kejriwal and CM Mann, these routes will be diverted. The Minister of Agriculture said that in the coming days, the subsidy will be released to the remaining eligible beneficiary farmers. Regarding making agriculture beneficial for the farmers, Chief Minister S. Reiterating the commitment of Bhagwant Singh Maan, the Agriculture Minister said that high yielding soft seeds were made available to encourage the farmers to cultivate alternative crops except the water intensive paddy crop. Adequate steps are also being taken to protect the narme crop from the attack of whitefly and pink bollworm. He said that apart from this, quality control is being ensured to provide quality agricultural products to the farmers. For this purpose, the shops with pesticides and seeds are being checked from time to time by the teams of the Agriculture Department.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/punjab/punjab-government-has-released-rs-2-69-crore-subsidy-of-soft-seeds-to-more-than-15-thousand-farmers-ak-459621.html</t>
+  </si>
+  <si>
+    <t>Airbus and Indian Railways sign MOU, Gati Shakti University expected to create 15,000 jobs</t>
+  </si>
+  <si>
+    <t>According to the Ministry of Railways, Airbus' Indian operation alone is set to induct around 15,000 students through this unprecedented initiative. The signing ceremony took place at Rail Bhawan, where the partnership was officially sealed by Remy Maillard, President and Managing Director, Airbus India and South Asia, and Professor Manoj Chaudhary, Vice-Chancellor, GSV. Gati Shakti Vishwavidyalaya (GSV) Vadodara was established under an Act of Parliament in 2022. This collaboration agreement follows the recent announcement by Airbus and Tata to set up a state-of-the-art C295 aircraft facility in Vadodara, Gujarat. has been done This joint effort underscores their shared commitment to promote innovation, design, manufacturing and development within the aerospace sector. During the signing, Rémi Maillard emphasized Airbus' dedication to fostering the aerospace ecosystem in India and their commitment to invest in human capital development. He said, "The partnership with Gati Shakti University will create a strong pool of skilled workers in the country. ​The pipeline will develop which will be ready to serve the rapidly growing aerospace sector in the future." The Railway Minister highlighted GSV's commitment to deep industry-academia partnership, and stressed that all course industry inputs will be prepared together with He stressed the importance of producing industry-ready graduates in the transport and logistics sectors and hailed the agreement with Airbus as an important step towards achieving this objective. This industry-academia partnership will benefit both regular students and working professionals. Work to facilitate co-development and co-delivery of sector-relevant skills courses and programmes. It will also include joint research initiatives, industry exposure for faculty, internship, placement and scholarship programmes.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/business/airbus-and-indian-railways-sign-mou-gati-shakti-university-expected-to-create-15000-jobs-skm-459617.html</t>
+  </si>
+  <si>
+    <t>If the dog bites, do not make these mistakes, learn the important things from the doctor</t>
+  </si>
+  <si>
+    <t>Dog Biting Precautions and Treatment: Hundreds of cases of dog bites are being reported daily across the country. After a dog bite, even the slightest carelessness can prove fatal. Recently, a heart-wrenching case has come to light in Uttar Pradesh's Ghaziabad, in which a child died of rabies about one and a half months after being bitten by a dog. After a dog bite, sometimes people unknowingly do such things, which makes their problem worse. What should be done and what should not be done, what kind of treatment should be done after a dog bite. , such questions have been answered by neuro and spine surgeon Dr. Vikas Kumar on his social media account (@drvikas1111). While sharing the information, he told what should be done first after a dog bite and what not. Pitbull Attack: Pitbull scratched a 4-year-old girl walking in the street... The court said that where there is a question of people's safety, there is negligence. Not tolerated Do this first thing after a dog bite If a person has been bitten by a dog, wash the wound first. Use warm water and soap for this. Do not put any kind of bandage on the wound and if the wound is very deep, use a clean bandage only. Be careful not to use any home remedies or lotions. If you have an over-the-counter antibiotic cream, apply it and see a doctor as soon as possible. Here's how to treat a dog bite. decides Doctors recommend the vaccine in most cases. If the wound is as small as a scratch, a vaccine is the best treatment. However, if the lesion is deep, you will be given an injection of anti-rabies immunoglobulin. Also, treatment for pet dog bites or street dog bites is different. Remember to consult a doctor as soon as possible after a dog bite. Following the doctor's advice can greatly prevent future problems caused by dog ​​bites.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/health/if-the-dog-bites-do-not-make-these-mistakes-learn-important-things-from-the-doctor-skm-459590.html</t>
+  </si>
+  <si>
+    <t>Sarkari Naukri: Staff nurses recruitment has been bumper, September 21 is the last date to apply</t>
+  </si>
+  <si>
+    <t>Sarkari Naukri : Uttar Pradesh Public Service Commission (UPPSC) has recently announced an important recruitment drive for both female and male staff nurses. There are a total of 2,240 posts of Group B, Non-Gazetted Temporary Staff Nurses in Department of Medical Education and Training and Department of Medical and Health Services. To be eligible for the post of Staff Nurse, candidates should possess BSc degree in General Nursing and Midwifery or Nursing, with registration with UP Nurse and Midwife Council. Out of 2,240 vacancies, 2,069 are designated for women, while 171 are available for men. The application process for the recruitment of Staff Nurse is currently underway and will remain open till September 21. Interested candidates can submit their applications through the official website uppsc.up.nic.in. These 5 Tips will come in handy while preparing for typing test for government job RBI Assistant Recruitment, BA can pass Apply, Know DETAILS Do you know the difference between SDM and DC, know the difference in roles and salaries What are the parameters for SI recruitment? Know How Much to Apply for Recruitment Race Application Fee Varies by Category: Unreserved, OBC, and EWS Candidates: Rs.125 SC/ST/Ex-Serviceman Candidates: Rs.65 Candidates for Staff Nurse Recruitment Born on 01 July 1983 Must have taken place before and not after 01 July 2023. SC, ST and OBC will get relaxation of five years, ex-servicemen will also get five years and disabled will get 15 years. The pay packages for staff nurses will be as follows: Pay Scale: Rs.9,300 - Rs.34,800 Grade Pay: Rs.4,600 Unhand Salary: Rs.44,900 Uttar Pradesh offers an excellent opportunity for aspiring staff nurses to get a steady job in the healthcare sector. If you meet the eligibility criteria then apply first before 21st September. For more information and to apply visit the official website. Do take advantage of this opportunity to join the healthcare workforce and contribute to the welfare of the people.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/career/sarkari-naukri-staff-nurses-recruitment-has-been-bumper-september-21-is-the-last-date-to-apply-gh-skm-459577.html</t>
+  </si>
+  <si>
+    <t>Punjab: Big Update on Ghar-Ghar Ration Scheme</t>
+  </si>
+  <si>
+    <t>The Ghar Ghar Ration Scheme of the Punjab Government is going to be launched in the month of November. Under this campaign, ration will be delivered door-to-door to 37.98 lakh families in Punjab. Chief Minister Bhagwant Mann and Delhi CM Arvind Kejriwal's most recent project is a door-to-door ration distribution scheme. Which was brought by the Punjab government twice. For the first time this scheme reached the High Court. After which again the government amended them and passed them in the cabinet. The Punjab government has given full responsibility to its organization Markfed to distribute ration from house to house. These days, the work on this project is going on very fast in Markfed. To implement this scheme, Markfed will also take the help of a management agency that will help in the work from procurement of goods to its distribution. Accepting CM Mann- Chief Minister Bajwa announced to develop Mohali as the hub of the state, Punjab police will now get Dubai police cars, Mann government has 129 vehicles, along with this, Punjab government has allowed Markfed to open 800 model reasonable price shops. has been given and work is being done to open them across Punjab. Punjab has been divided into four zones to deliver ration to every household. And Markfed staff will be deployed on a large scale in this work. Under the scheme, the beneficiaries will have the option of buying a certain quantity of wheat or flour. Punjab has been divided into four zones to implement the door-to-door ration scheme. Zone 1 includes Hoshiarpur, Kapurthala, Nawanshahr, Ludhiana and Jalandhar. Amritsar, Gurdaspur, Pathankot and Tartaran in Zone 2. Zone 3 includes Faridkot, Ferozepur, Moga, Sri Muktsar Sahib, Bathinda and Fazilka. Zone 4 includes Fatehgarh Sahib, Malerkotla, Patiala, Sangrur, Mohali, Ropar, Barnala and Mansa. Depot holders will also be included in this scheme to implement the scheme at ground level. 18000 ration depot licenses are sanctioned in Punjab. Of these, 12,000 are employed while 6,000 license holders are unemployed. Out of these 800 licenses have been given to Markfed. Markfed will equip these depots with modern infrastructure, including consistent staff, basic facilities, CCTV. There will also be cameras, EPOS machines etc.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/punjab/punjab-big-update-on-ghar-ghar-ration-scheme-absh-462241.html</t>
+  </si>
+  <si>
+    <t>Immediate special girdavari order for loss of cotton, cotton and sugarcane crops - Shiromani Akali Dal</t>
+  </si>
+  <si>
+    <t>The Shiromani Akali Dal demands that a special Girdavari be ordered immediately to take stock of the damage to cotton, cotton and sugarcane crops due to heavy rains and strong winds across Punjab. The farmers should be immediately compensated at the rate of Rs. 50,000 per acre for the loss. Farm laborers should also be compensated for loss of work on the lines of the previous Shiromani Akali Dal government. For this, Bhagwant Mann should stop spending crores of rupees on his and Arvind Kejriwal's advertisements. Farmers are already waiting for compensation for the heavy damage to their paddy crop during the floods in July. The Chief Minister should fulfill his promise of compensation for the loss of farmers/farm workers, even chickens and goats. The old parliamentary building should be dedicated to Guru Teg Bahadur Sahib: Harsimrat Kaur-Sukhbir is trying to form an alliance with BJP, BJP is not giving a hand" Harsimrat Badal to end Akali-BJP alliance Efforts started for 'Shrimani Akali Dal's senior leader Prakash Chand Garg left the party</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/punjab/immediate-special-girdavari-order-for-loss-of-cotton-cotton-and-sugarcane-crops-shiromani-akali-dal-462252.html</t>
+  </si>
+  <si>
+    <t>The season of running AC is going, due to low demand, the price has dropped significantly, brands like LG, Panasonic are on the list.</t>
+  </si>
+  <si>
+    <t>Best Discount on AC: The weather has started taking a curve. Now gradually ac. And the need for coolers will begin to decrease and then in the next month or two the fans will also stop. Demand for AC and cooler also increases in summer season, due to which the price of AC also increases. But now the demand is decreasing due to the changing weather, due to which air conditioners are being made available at cheaper prices. Flipkart is running a sale where electronic items, gadgets, appliances are available at very low prices. have been Let's find out which AC home you can bring cheap. Customers can bring Daikin 2023 model 0.8 ton 3 star split AC home at 30% discount. After the discount, this AC is being made available at Rs 25,999 instead of Rs 37,400. The AC can be bought at a discount of Rs 6,000 under the exchange offer. It comes with an annual power consumption of 548.84kWh. It is perfect for rooms up to 90sqft. 1 year warranty on product and 5 year warranty on compressor LG AI Convertible 6 in 1 Cooling 2023 Model 1.5 Ton 3 Star Split AI Dual Inverter AC can be bought at 47% discount. This AC can be bought for just Rs 35,990 instead of Rs 78,990 from the customer sale. The special thing is that a discount of Rs 6,000 is being given on it under the exchange offer. It comes with an annual power usage of 852.44kWh. It is perfect for rooms ranging from 111-150sqft. 1 year warranty on its product and 5 year warranty on the compressor. Panasonic Convertible 7 in 1 2023 model comes with AI mode cooling. It is 1 Ton 3 Star Split Inverter AC. 30% discount is being given on this AC. After the discount, customers can buy this AC for Rs 33,490 instead of Rs 48,100.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/lifestyle/price-of-air-conditioner-has-dropped-significantly-sk-462304.html</t>
+  </si>
+  <si>
+    <t>Weather Update: Heavy rain will occur in 24 states including Punjab-Haryana, read IMD's latest update</t>
+  </si>
+  <si>
+    <t>Weather Update: The weather has once again taken a turn for the worse in many states including the national capital Delhi. It has started raining in many places since last few days. It has been raining in Delhi-NCR since last Friday. According to the Meteorological Department, it is likely to rain in Delhi today. According to the forecast of the department, the sky will remain cloudy today. Strong winds are also likely. According to the report of India Meteorological Center today, there is a possibility of heavy rain at different places in south-west Madhya Pradesh and south-east Rajasthan. Weather Update: Rain alert issued in these 5 districts of Punjab, heavy in Punjab, Haryana and Chandigarh Rain, IMD has issued an alert till September 19, rain in Punjab-Haryana and Rajasthan, the weather will remain like this for the next 5 days... Weather Alert: Heavy rain forecast in Punjab-Haryana and UP today, heavy rain in Gujarat today and tomorrow is likely According to AMD, heavy rain is likely to occur in Saurashtra and Kutch till September 20. Light to moderate rain is expected in Uttarakhand today. A storm may also come. According to a Skymet Weather report, Delhi-NCR is likely to receive the next round of rain around September 23 or 24. Light to moderate rain at isolated places over Andaman and Nicobar Islands, Tamil Nadu, Kerala and Konkan and Goa today. It may rain heavily. Apart from this, light to moderate rain is likely over Manipur, Mizoram, Tripura, Odisha, Jharkhand and Himachal Pradesh, Uttarakhand, Punjab, Haryana, Interior Tamil Nadu, South Interior Karnataka and Lakshadweep. Apart from this, light rain is likely to occur in Vidarbha, Madhya Maharashtra, Coastal Andhra Pradesh and North East India. These states received heavy rain. Talking about the weather in the last 24 hours, Southwest Madhya Pradesh received heavy to very heavy rain. . Andaman and Nicobar Islands and North Tamil Nadu received moderate to heavy rains. Apart from Gangetic West Bengal, Jharkhand, Uttar Pradesh, Haryana, Rajasthan, North Punjab, Himachal Pradesh, Jammu Division, East Gujarat, Konkan and Goa, Coastal Karnataka, Kerala and Lakshadweep received light to moderate rains.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/national/punjab-weather-udpate-rainfall-imd-alert-delhi-ncr-weather-news-gujarat-madhya-pradesh-uttarakhand-rajasthan-rain-alert-gw-462050.html</t>
+  </si>
+  <si>
+    <t>Sony Xperia's strong phone entry soon, Xiaomi 14 Pro will give a tough fight to Galaxy S24, leaked features</t>
+  </si>
+  <si>
+    <t>Entry of Sony Xperia 1 VI is coming soon. It is being said that this next 'One' series phone of the company will be launched next year. Although the company has not disclosed this phone, but various information about the phone has already come out. This phone may come as the successor of Sony Xperia 1 V, which the company launched in May this year. The Sony Xperia 1 V features a 6.5-inch OLED display, which supports 21:9 CinemaWide 4K HDR and a 120Hz refresh rate. In a recent Reddit post, a user hinted that the Japanese phone maker is planning to launch its next ' One' smartphone may launch at MWC 2024 at the beginning of next year. It is said that this smartphone will give a tough competition to Samsung Galaxy S24 series and Xiaomi 14 Pro. Apart from this, the post also reveals that the phone could be equipped with a new large telephoto sensor offering a 6x zoom camera. It is also expected to feature Sony's Clear Image zoom capabilities. Apart from this, it has also been revealed that the Sony Xperia 1 VI will come in sustainable packaging that can use recycled materials. However, Sony has not revealed anything about the upcoming smartphone. The Sony Xperia 1 VI will come as the successor of the Xperia 1 V, so talking about the features of the Xperia 1 V, it will have a 6.5-inch OLED display with 21: 9 launched with CinemaWide 4K HDR, 120Hz refresh rate and 240Hz touch sampling rate. The phone is equipped with Snapdragon 8 Gen 2 SoC. It has 12GB RAM and 256GB internal storage.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/lifestyle/sony-xperia-powerful-phone-entry-soon-sk-462253.html</t>
+  </si>
+  <si>
+    <t>Petrol Diesel Prices: Petrol became cheaper in Punjab, prices increased in Rajasthan...</t>
+  </si>
+  <si>
+    <t>There has been no change in the prices of crude oil in the international market today. WTI crude is selling at 90.77 dollars per barrel. Along with this, Brent crude is doing business at 93.93 dollars per barrel. The country's oil marketing companies have released the latest prices of petrol and diesel. Fuel prices are revised every day at 6 am in India.Petrol Diesel Price: What is the rate of petrol and diesel today, 10 percent pollution tax on diesel cars in your city now-Union Minister Gadkari Charge once and Drive 180 km, this electric bike Petrol Diesel Price: There has been a change in the prices of petrol and diesel, to fill the tank Today there has been no change in the prices of petrol and diesel in most of the states of the country. However, petrol has become cheaper by 48 paise in Punjab. Along with this, the price of petrol has increased by 6 paise in Rajasthan. In Uttar Pradesh, the price of petrol and diesel has increased by 10 paise. Petrol-Diesel has become expensive in Himachal too. Petrol and diesel prices in all four metros - Delhi petrol Rs 96.72 and diesel Rs 90.08 per liter - Mumbai petrol Rs 106.31 and diesel Rs 94.27 per liter - Kolkata Petrol Rs 106.03 and Diesel Rs 92.76 per litre- Petrol Rs 102.63 and Diesel Rs 94.24 per liter in Chennai How much change in prices in these cities?- Petrol Rs 96.94 and Diesel Rs 90.11 per liter in Noida- Petrol Rs 96.57 in Lucknow and diesel Rs 89.76 per litre-Petrol Rs 107.24 and diesel Rs 94.04 per liter in Patna-Petrol Rs 84.10 and diesel Rs 79.74 per liter in Port Blair</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/punjab/petrol-diesel-prices-in-bihar-haryana-uttar-pradesh-noida-patna-ghaziabad-on-17-september-2023-check-latest-rates-gw-461833.html</t>
+  </si>
+  <si>
+    <t>The roof of the house collapsed in Railway Colony, 5 including 3 children died</t>
+  </si>
+  <si>
+    <t>Lucknow- Big news is coming from Lucknow, the capital of Uttar Pradesh, where the roof of a house has collapsed in the old Alambagh Railway Colony. It is reported that five people, including three children, died due to the collapse of the roof of the house. It is being told that the railway employee Satish Chandra, his wife and their three children have died in this incident. According to the information received, this colony is built on the edge of Anand Nagar Fateh Ali intersection of Alambagh. After the incident, the police and fire brigade team has reached the spot. Relief operations are ongoing at the spot. After this incident there was noise on the spot and people started running here and there. Painful death of 3 friends, Lashantez was cut and taken out by the car. Heavy rain, painful death of 3 people. A woman died in a road accident due to a private school bus overturning in Dera Baba Nanak, the family will get 61 billion rupees compensation Railway employee Satish Chandra (40), his wife Sarojni Devi (35), son Harshit ( 13), daughter Harshita (10) and son Ansh (5) have died. The police reached the spot, took out the bodies from the debris and sent the bodies for post-mortem. Apart from this, relief and rescue work is being done considering the possibility of other people being trapped there. Chief Minister Yogi Adityanath has taken notice of the accident in Lucknow. The Chief Minister has expressed his condolences to the bereaved families of the deceased. The Chief Minister has directed the officials of the district administration to immediately take the injured to the hospital and give them proper treatment. Along with this, he also wished for the speedy recovery of the injured. The officials of the district administration have been instructed to reach the spot and speed up the relief work. The Chief Minister has given instructions for proper treatment of the injured.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/national/up-news-roof-of-house-collapsed-in-alambagh-railway-colony-lucknow-5-including-3-children-died-cm-yogi-reached-hospital-ak-461614.html</t>
+  </si>
+  <si>
+    <t>Ex-MLA Satkar Kaur Gehri and her husband arrested by vigilance in the case of making more property than income</t>
+  </si>
+  <si>
+    <t>Chandigarh: The Punjab Vigilance Bureau on Monday arrested Satkar Kaur Gehri, former MLA from Ferozepur Rural and her husband Jasmail Singh Gehri, residents of village Shakur, district Ferozepur, after a vigilance investigation in the case of making assets beyond their income. Information in this regard The spokesperson of Punjab Vigilance Bureau said that during the investigation of this case, it has been found that the former MLA with the connivance of her husband amassed more property than the known sources of income during her tenure as a member of the Legislative Assembly. He further stated that during the period covered by this investigation, his total income from all sources was Rs.1,65,34,053, while his total expenditure during the same period was Rs.4,49,19,831. As a result, they spent Rs 2,83,85,778.41 more, which represents a 171.68% increase. Zira's Liquor Factory closed with immediate effect, the first district of Punjab in terms of cleanup of heritage waste, Baniafirozpur, when the police picked up the rogue bride from the mandap, 4 members of the 'Robbery Bride', Kaboobulare also said that the section of the Prevention of Corruption Act against the two persons. 13(1) and 13(b) and under section 120-B of the Indian Penal Code (IPC) a case has been registered at the Vigilance Bureau Police Station of Ferozepur. He said that further investigation of this matter is going on.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/punjab/ex-mla-satkar-kaur-gehri-and-her-husband-arrested-by-vigilance-in-the-case-of-making-more-property-than-income-ak-462305.html</t>
+  </si>
+  <si>
+    <t>The painful death of 3 friends, the bodies removed by cutting the car</t>
+  </si>
+  <si>
+    <t>A major accident took place on the Amritsar-Pathankot National Highway at Nowshera Majha Singh, a town near Batala. A trolley and a Swift Desire collided with each other. In the accident, three of the four people in the vehicle died and one is said to be injured. All the three persons killed in the accident belong to Dhariwal city. Gurdaspur News | A major accident occurred due to a private school bus overturning in Dera Baba Nanak #local18 Which way did the youth of Punjab go? Vaccinations La-La hollow bodies Agriculture: Farmers were made aware to make the district Gurdaspur pollution-free Man jumped from the second floor of the house to avoid monkeys, his legs were broken Electricity did not come to the house for the last 2 months, from the administration Akke family now took a big step! Dharna continues for a year and a half to go to Kartarpur Sahib without passport, 'Do not weigh the work of devotion with money' Gurdaspur News: Daughters of new village chiefs brought their village on the map of tourism Gurdaspur News | Health fairs will be organized in Gurdaspur every Saturday till October 2. Heavy rains raged, 3 people died painfully. Shopkeepers, suffering from mining, stopped the trucks, lashed out against the administration.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/gurdaspur/3-friends-died-one-injured-in-road-accident-batala-gurdaspur-local18-hs-local18-462263.html</t>
+  </si>
+  <si>
+    <t>Golden Temple Sri Harmandir Sahib decorated with flowers on the first Prakash Purab of Sri Guru Granth Sahib. #Local18</t>
+  </si>
+  <si>
+    <t>Nitish Sabharwal, Amritsar Sachkhand Sri Harmandir Sahib where daily thousands of devotees come to pay obeisance and seek God's blessings for the peace and comfort of their families. The devotees consider themselves lucky to come to the center of this spirituality. A kirtan decorated on the occasion of Prakash Purab of Sri Guru Granth Sahib at Khalsa College will be dedicated to the 150th centenary of the Guhar Singh Sabha movement on September 21. A seminar was held at the Khalsa College under the 'eye donation awareness campaign'. The salon owner was attacked by the youth, his finger was broken, and his finger was left in the street. Various Gurdwara Sahibs have donated 6 lakhs 50 to the Shiromani Committee for natural calamities fund. A check of Rs.1000 was handed over to Sri Guru Granth Sahib ji. Sajya Nagar Kirtan on the occasion of the first Prakash Purab of Sri Guru Granth Sahib Ji. #Local18 An incident happened with a person who stopped the vehicle and went to take medicine for two minutes Ganesh Chaturthi 2023. The festival of Ganesh Chaturthi is near, there is excitement in the markets. #Local18 Golden Temple. See the supernatural Deepmala and fireworks from Sachkhand Sri Harmandir Sahib. Advocate Dhami condemns exclusion of Gursikh player from the competition for not wearing a helmet in #Local18 sports competition On the occasion of the first Prakash Purab of Sri Guru Granth Sahib Ji, Sachkhand Sri Harimandar Sahib was decorated with colorful flowers. On this occasion, the circumambulation of Sachkhand Sri Harmandir Sahib was decorated with charming flowers. Often on the occasion of Prakash Purab and Gurmati celebrations, one can see a supernatural feeling of devotion among the devotees, due to which thousands of devotees pay obeisance at this holy Gurughar. Sri Darbar Sahib was decorated with flowers ordered from different states and artisans from other states were also invited for decoration on this occasion. On the occasion of the first Prakash Purab of Sri Guru Granth Sahib Ji, Gurdwara Sri Ramsar S</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/amritsar/golden-temple-sri-harmandir-sahib-decorated-with-flowers-on-the-first-prakash-purab-of-sri-guru-granth-sahib-ji-amritsar-local18-461560.html</t>
+  </si>
+  <si>
+    <t>Tantric used to rape boys by threatening to make pigeons, two friends got fed up and took this horrible step.</t>
+  </si>
+  <si>
+    <t>Crime News: Police have arrested two youths in the case of the murder of Tantrik, a resident of Rudauli area of ​​Khandsa police station area of ​​Ayodhya district of Uttar Pradesh, along with this, the ax used in the murder has also been recovered. The name of the deceased was Hafiz Saqib and he used to make speeches as well as hurling crops. In the guise of this grudge, he was physically abusing these two youths by making them sometimes a rooster, sometimes an animal and sometimes a genie. Fed up with this physical abuse, the two friends killed Tantrik with an ax while he was sleeping at night. SP Dehat AK Sonkar said that Khandsa police station in-charge Manoj Kumar was involved in the investigation and investigation of the case of murder and concealment of evidence. The team arrested Mohammad near the bridge of the double canal in village Ghatauli. Gulfam resident Ghatauli police station Khandasa, Ayodhya and Saleem resident Bhadav Kalyanpur police station Piparpur district Amethi have been arrested. During interrogation, they confessed to killing Saqib with an ax and one ax was recovered from both of them. Find out which 5 things seem to be good on the part of the godfather. Do this measure with Tulsi, the ancestors will be happy and give blessings. Both the accused who came into contact are friends and had previously gone to study in a Madrasa located in Rudauli. There both speakers came in contact with Hafiz Saqib. Saqib, who was notorious for his evil tendencies, lured them under the pretext of gaining spiritual powers and started physically abusing them both. Fed up with this, both of them hacked Saqib to death with an ax while he was sleeping near Gulfam's house in Turkahia Majra of village Ghatauli on Friday night and threw the body in a bundle of polythene tarpaulin in the morning. were going After this, the incident came to light after the bike went out of control and overturned on the speed breaker. The police identified the deceased from Aadhaar card and bike registration and registered a case on the complaint of the deceased's sister who lives in Paranga police station area.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/national/two-arrested-for-ayodhya-tantrik-murder-who-was-committing-rape-by-threatening-boys-tc-462195.html</t>
+  </si>
+  <si>
+    <t>BJP councilor along with his colleagues arrested for supplying illegal liquor and drug capsules</t>
+  </si>
+  <si>
+    <t>In Himachal Pradesh, the Anti-Narcotics Task Force conducted a major operation against drugs in Una's Gargaret. In such a situation, now the Una police have also come into action. The Anti-Narcotics Task Force recovered about 28560 banned capsules during an operation in Gargret 2 days ago. After this operation of ANTF, the Una Police also came into action and by exposing the further layers, 210 bottles of illicit liquor and 25000 banned capsules were recovered. The men of the village were killed and thrown into the canal... the police solved it. The bodies of the two found on the bed, which happened with the person who stopped the cart and went to take medicine for two minutes, in this big case of drug trafficking that came to light in the Kondagagaret area, the police have registered different cases and arrested four persons so far. Among the main ringleaders, the name of councilor Varinder Sharma from Nagar Panchayat Gagret is prominent. On the third consecutive day of the operation, they have succeeded in seizing a large consignment of banned drugs. On the evening of September 14, a team of Anti-Narcotics Task Force Kangra intercepted a consignment of around 28560 banned capsules being brought in a pickup. After this, the police arrested BJP-supporting councilor Varinder Sharma alias Bindu of Nagar Panchayat Gagret along with the operator of the medical store. After this, the Una police team raided the house of the accused on Saturday morning and recovered 210 packs of illegal liquor. The matter did not end here, the police received information about the arrival of another consignment of banned and narcotic substances in the same area. On the basis of this, the police team succeeded in recovering about 25,000 drugs and drug capsules late on Saturday evening. District Police Chief Arijit Sen Thakur says that the police is continuously taking action in this case. Various cases have been registered against the main accused Virender Sharma alias Bindu in the case of prohibited drugs and illicit liquor. More people will be arrested as the investigation continues. SP Una Arjitsen Thakur said that the police will also conduct a financial investigation of the accused in this case, so that the property collected from this drug business can be ascertained.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/national/himachal-pradesh-una-banned-drugs-and-illegal-liquor-supplier-bjp-councilor-arrested-by-una-police-gw-462175.html</t>
+  </si>
+  <si>
+    <t>Lawrence called Dawood's 'Khas' for Faruti, got this reply later...</t>
+  </si>
+  <si>
+    <t>In the case of Mahadev app scam, there has been a big revelation in the investigation of the police and investigative agencies. Information has come to light that gangster Lawrence Bishnoi demanded ransom from accused Saurabh Chandrakar. However, it all backfired on gangster Lawrence Bishnoi and Saurabh Chandrakar threatened him (Lawrence). Don't call and ask for money by mistake next time. Video call with Monu Manesar, the main accused of Lawrence Bishnoi Dinuh violence Viral Mohali Police arrested Gangster Anil Bishnoi Sidhu Moosewala's close friend Karan Aujla's Lawrence Bishnoi's shooter Sam Moosewala's killer Sachin Thapan is not a relative of gangster Lawrence Bishnoi, investigation has revealed that Mahadev app promoter Saurabh Chandrakar has links with underworld don Dawood Ibrahim. Lawrence Bishnoi was shocked after hearing Dawood's name. Let us tell you that the Enforcement Directorate (ED) is constantly cracking down on the Mahadev app case. Along with this, it is being suspected that Bollywood stars as well as people from the underworld will have attended Saurabh Chandrakar's wedding. Mahadev app owner Chandrakar spent Rs 200 crore cash on his wedding. In fact, in the month of February, online betting platform Mahadev book app owner Saurabh Chandrakar got married in the United Arab Emirates. Meanwhile royal arrangements were made. The video of which is now in the hands of Indian agencies. Saurabh Chandrakar's wedding ceremony was attended by many Bollywood singers, actors and Pakistani singers and was paid more than 200 crore rupees through hawala.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/national/mahadev-book-app-online-betting-saurabh-chandrakar-dawood-ibrahim-lawrence-bishnoi-extortion-money-gw-462112.html</t>
+  </si>
+  <si>
+    <t>Student returning from school pulled dupatta, died due to fall, police in Encounter...</t>
+  </si>
+  <si>
+    <t>A big news has come out from Ambedkarnagar in Uttar Pradesh. Here the police have arrested two miscreants after the encounter. These two accused were trying to escape by snatching the police rifle. These bikers had pulled the dupatta of the student who was riding the bike, due to which she lost her balance and fell on the ground. Meanwhile, she collided with another motorcycle coming from behind. After the death of the student, the three accused tried to escape from the police custody. The police encountered the young man in the middle of the night, the family said he was murdered. 3 ex-police officers sentenced to life imprisonment in Hamal 1992 fake police encounter Family serving country for three generations, two-year-old daughter and one son It has been reported that the arrested accused also tried to take away the policemen's guns. And fired shots too. After this, the police retaliated, in which Shahbaz and Faisal were shot in the legs, while the third accused suffered a broken leg due to a fall while running. In fact, on September 15, a class 11 student was returning from school on a bicycle. A student's dupatta was pulled by these mischievous elements. Due to this, she lost her balance and fell in the middle of the road along with the bicycle. After this, a bike coming from behind crushed the student. The student died in this incident. The father of the deceased girl said that his daughter was a biology student and was very smart in studies. His dream was to become a doctor. About the incident, Ambedkar Nagar SP Ajit Sinha said that Shahbaz and Faisal, accused of attacking the student, were shot in the leg in the police encounter when they tried to run away during the medical. The leg of the third accused is broken. The official said that a case has been registered under Section 302 of IPC as well as POCSO Act. After the girl's death, the SP has suspended the in-charge of Hanswar police station on charges of negligence.</t>
+  </si>
+  <si>
+    <t>https://punjab.news18.com/news/national/student-dies-due-to-teasing-in-ambedkar-nagar-police-encounter-with-miscreants-gw-462091.html</t>
   </si>
 </sst>
 </file>
